--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2866044.511314106</v>
+        <v>-2866870.804148599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3232064.881861079</v>
+        <v>3232064.881861078</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.8716252173193</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.864246219529</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5704492417099232</v>
+        <v>288.6063837894345</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G11" t="n">
-        <v>309.1594978745047</v>
+        <v>309.1594978745046</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6087210113936</v>
+        <v>103.6936861336512</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531524</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>70.54719260666907</v>
       </c>
       <c r="T11" t="n">
-        <v>117.4676296620865</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>150.0608464255999</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3780024574984</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>256.6781019354553</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.59376944792864</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>57.85515712593521</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1458850439559</v>
+        <v>24.9144061384362</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.53030467618051</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.85006423600237</v>
+        <v>5.336743779593082</v>
       </c>
       <c r="S12" t="n">
-        <v>145.7858681427258</v>
+        <v>43.55438923720615</v>
       </c>
       <c r="T12" t="n">
-        <v>185.6078659166395</v>
+        <v>83.37638701111986</v>
       </c>
       <c r="U12" t="n">
         <v>216.2904148768182</v>
@@ -1512,10 +1512,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>102.894193108394</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.36463418139731</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.48833609201638</v>
+        <v>79.48833609201635</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68833093741686</v>
+        <v>65.68833093741684</v>
       </c>
       <c r="D13" t="n">
-        <v>49.30969533499525</v>
+        <v>49.30969533499523</v>
       </c>
       <c r="E13" t="n">
-        <v>48.2574451907747</v>
+        <v>48.25744519077467</v>
       </c>
       <c r="F13" t="n">
-        <v>48.72436951896101</v>
+        <v>48.72436951896098</v>
       </c>
       <c r="G13" t="n">
-        <v>64.75147754526346</v>
+        <v>64.75147754526343</v>
       </c>
       <c r="H13" t="n">
-        <v>53.34609793795934</v>
+        <v>53.34609793795932</v>
       </c>
       <c r="I13" t="n">
-        <v>33.08368730955452</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>105.0262857884477</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5577801408553</v>
+        <v>127.5577801408552</v>
       </c>
       <c r="U13" t="n">
-        <v>182.0733530450872</v>
+        <v>182.0733530450871</v>
       </c>
       <c r="V13" t="n">
-        <v>155.896472491642</v>
+        <v>155.8964724916419</v>
       </c>
       <c r="W13" t="n">
         <v>181.0633585622552</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.8716252173193</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D14" t="n">
-        <v>266.8642462195291</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.6063837894345</v>
       </c>
       <c r="F14" t="n">
-        <v>307.7781998774118</v>
+        <v>307.7781998774117</v>
       </c>
       <c r="G14" t="n">
-        <v>309.1594978745047</v>
+        <v>309.1594978745046</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6087210113937</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.57772831531528</v>
+        <v>47.57772831531524</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54719260666913</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117.4676296620865</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3780024574985</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>256.6781019354554</v>
+        <v>12.50206929001983</v>
       </c>
       <c r="X14" t="n">
-        <v>275.978360168202</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5583307630724</v>
+        <v>287.3749579644007</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I15" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S15" t="n">
-        <v>50.27022999726432</v>
+        <v>50.27022999726388</v>
       </c>
       <c r="T15" t="n">
         <v>185.6078659166395</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.48833609201644</v>
+        <v>79.48833609201635</v>
       </c>
       <c r="C16" t="n">
-        <v>65.68833093741692</v>
+        <v>65.68833093741684</v>
       </c>
       <c r="D16" t="n">
-        <v>49.30969533499531</v>
+        <v>49.30969533499523</v>
       </c>
       <c r="E16" t="n">
-        <v>48.25744519077476</v>
+        <v>48.25744519077467</v>
       </c>
       <c r="F16" t="n">
-        <v>48.72436951895995</v>
+        <v>48.72436951896098</v>
       </c>
       <c r="G16" t="n">
-        <v>64.75147754526351</v>
+        <v>64.75147754526343</v>
       </c>
       <c r="H16" t="n">
-        <v>53.3460979379594</v>
+        <v>53.34609793795933</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08368730955458</v>
+        <v>33.08368730955449</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66232683265963</v>
+        <v>34.66232683265956</v>
       </c>
       <c r="S16" t="n">
-        <v>105.0262857884478</v>
+        <v>105.0262857884477</v>
       </c>
       <c r="T16" t="n">
         <v>127.5577801408553</v>
       </c>
       <c r="U16" t="n">
-        <v>182.0733530450872</v>
+        <v>182.0733530450871</v>
       </c>
       <c r="V16" t="n">
-        <v>155.896472491642</v>
+        <v>155.8964724916419</v>
       </c>
       <c r="W16" t="n">
-        <v>181.0633585622553</v>
+        <v>181.0633585622552</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7084605580584</v>
+        <v>126.7084605580583</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.5833283141261</v>
+        <v>117.583328314126</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3244326106502</v>
+        <v>217.3244326106501</v>
       </c>
       <c r="C17" t="n">
         <v>205.3357495683319</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.92043705541732</v>
+        <v>46.9204370554173</v>
       </c>
       <c r="U17" t="n">
-        <v>79.51365381893075</v>
+        <v>79.51365381893072</v>
       </c>
       <c r="V17" t="n">
         <v>160.8308098508293</v>
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>89.16055157467493</v>
+        <v>31.63024689849395</v>
       </c>
       <c r="H18" t="n">
         <v>96.08621347328979</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S18" t="n">
         <v>145.7858681427258</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.941143485347254</v>
+        <v>8.941143485347226</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R19" t="n">
-        <v>136.8938057381792</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.97991726788891</v>
+        <v>34.47909318177859</v>
       </c>
       <c r="T19" t="n">
-        <v>57.01058753418615</v>
+        <v>57.01058753418612</v>
       </c>
       <c r="U19" t="n">
         <v>111.526160438418</v>
       </c>
       <c r="V19" t="n">
-        <v>85.34927988497284</v>
+        <v>85.34927988497282</v>
       </c>
       <c r="W19" t="n">
         <v>110.5161659555861</v>
       </c>
       <c r="X19" t="n">
-        <v>56.16126795138922</v>
+        <v>84.77722626348999</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.03613570745691</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.92043705541735</v>
+        <v>46.92043705541736</v>
       </c>
       <c r="U20" t="n">
-        <v>79.51365381893078</v>
+        <v>79.51365381893079</v>
       </c>
       <c r="V20" t="n">
         <v>160.8308098508293</v>
       </c>
       <c r="W20" t="n">
-        <v>186.1309093287861</v>
+        <v>186.1309093287862</v>
       </c>
       <c r="X20" t="n">
         <v>205.4311675615328</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>31.63024689849441</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H21" t="n">
         <v>96.08621347328979</v>
       </c>
       <c r="I21" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.85006423600236</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.7858681427258</v>
+        <v>91.12029423326629</v>
       </c>
       <c r="T21" t="n">
         <v>185.6078659166395</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>8.941143485347283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>67.85806991390098</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>57.01058753418618</v>
       </c>
       <c r="U22" t="n">
-        <v>157.5614072646112</v>
+        <v>111.5261604384181</v>
       </c>
       <c r="V22" t="n">
         <v>85.34927988497287</v>
@@ -2372,7 +2372,7 @@
         <v>46.92043705541735</v>
       </c>
       <c r="U23" t="n">
-        <v>79.51365381893079</v>
+        <v>79.51365381893078</v>
       </c>
       <c r="V23" t="n">
         <v>160.8308098508293</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>72.48031113449686</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H24" t="n">
         <v>96.08621347328979</v>
       </c>
       <c r="I24" t="n">
-        <v>57.53030467618051</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2.864730766722068</v>
       </c>
       <c r="S24" t="n">
         <v>145.7858681427258</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R25" t="n">
-        <v>68.32499424208739</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>34.47909318177864</v>
@@ -2539,10 +2539,10 @@
         <v>110.5161659555861</v>
       </c>
       <c r="X25" t="n">
-        <v>56.16126795138925</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.03613570745694</v>
+        <v>75.65209401955725</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2561,13 @@
         <v>266.864246219529</v>
       </c>
       <c r="E26" t="n">
-        <v>288.6063837894346</v>
+        <v>288.6063837894345</v>
       </c>
       <c r="F26" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G26" t="n">
-        <v>309.1594978745047</v>
+        <v>309.1594978745046</v>
       </c>
       <c r="H26" t="n">
         <v>221.6087210113936</v>
@@ -2606,7 +2606,7 @@
         <v>70.54719260666909</v>
       </c>
       <c r="T26" t="n">
-        <v>117.4676296620865</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U26" t="n">
         <v>150.0608464255999</v>
@@ -2618,7 +2618,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X26" t="n">
-        <v>275.978360168202</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y26" t="n">
         <v>287.3749579644007</v>
@@ -2652,7 +2652,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I27" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S27" t="n">
         <v>145.7858681427258</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.4883360920164</v>
+        <v>79.48833609201637</v>
       </c>
       <c r="C28" t="n">
-        <v>65.68833093741688</v>
+        <v>65.68833093741685</v>
       </c>
       <c r="D28" t="n">
-        <v>49.30969533499527</v>
+        <v>49.30969533499524</v>
       </c>
       <c r="E28" t="n">
-        <v>48.25744519077472</v>
+        <v>48.25744519077469</v>
       </c>
       <c r="F28" t="n">
-        <v>48.72436951896103</v>
+        <v>48.724369518961</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75147754526347</v>
+        <v>64.75147754526344</v>
       </c>
       <c r="H28" t="n">
-        <v>53.34609793795936</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I28" t="n">
-        <v>33.08368730955453</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66232683265959</v>
+        <v>34.66232683265957</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0262857884478</v>
+        <v>105.0262857884477</v>
       </c>
       <c r="T28" t="n">
         <v>127.5577801408553</v>
@@ -2776,7 +2776,7 @@
         <v>181.0633585622552</v>
       </c>
       <c r="X28" t="n">
-        <v>126.7084605580584</v>
+        <v>126.7084605580583</v>
       </c>
       <c r="Y28" t="n">
         <v>117.583328314126</v>
@@ -2810,7 +2810,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I29" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531526</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666909</v>
       </c>
       <c r="T29" t="n">
         <v>117.4676296620864</v>
@@ -2889,7 +2889,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I30" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S30" t="n">
         <v>145.7858681427258</v>
@@ -2965,7 +2965,7 @@
         <v>64.75147754526344</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34609793795933</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I31" t="n">
         <v>33.08368730955451</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265957</v>
       </c>
       <c r="S31" t="n">
         <v>105.0262857884477</v>
@@ -3029,25 +3029,25 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C32" t="n">
-        <v>275.8829421750011</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D32" t="n">
         <v>266.864246219529</v>
       </c>
       <c r="E32" t="n">
-        <v>288.6063837894346</v>
+        <v>288.6063837894345</v>
       </c>
       <c r="F32" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G32" t="n">
-        <v>309.1594978745047</v>
+        <v>309.1594978745046</v>
       </c>
       <c r="H32" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I32" t="n">
-        <v>47.57772831531527</v>
+        <v>47.57772831531521</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.5471926066691</v>
+        <v>70.54719260666904</v>
       </c>
       <c r="T32" t="n">
-        <v>117.4676296620865</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0608464255999</v>
+        <v>150.0608464255998</v>
       </c>
       <c r="V32" t="n">
         <v>231.3780024574984</v>
@@ -3092,7 +3092,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X32" t="n">
-        <v>275.978360168202</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y32" t="n">
         <v>287.3749579644007</v>
@@ -3126,7 +3126,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I33" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S33" t="n">
         <v>145.7858681427258</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.48833609201641</v>
+        <v>79.48833609201633</v>
       </c>
       <c r="C34" t="n">
-        <v>65.68833093741689</v>
+        <v>65.68833093741681</v>
       </c>
       <c r="D34" t="n">
-        <v>49.30969533499528</v>
+        <v>49.3096953349952</v>
       </c>
       <c r="E34" t="n">
-        <v>48.25744519077473</v>
+        <v>48.25744519077465</v>
       </c>
       <c r="F34" t="n">
-        <v>48.72436951896104</v>
+        <v>48.72436951896096</v>
       </c>
       <c r="G34" t="n">
-        <v>64.75147754526348</v>
+        <v>64.7514775452634</v>
       </c>
       <c r="H34" t="n">
-        <v>53.34609793795937</v>
+        <v>53.34609793795929</v>
       </c>
       <c r="I34" t="n">
-        <v>33.08368730955455</v>
+        <v>33.08368730955447</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.6623268326596</v>
+        <v>34.66232683265953</v>
       </c>
       <c r="S34" t="n">
-        <v>105.0262857884478</v>
+        <v>105.0262857884477</v>
       </c>
       <c r="T34" t="n">
-        <v>127.5577801408553</v>
+        <v>127.5577801408552</v>
       </c>
       <c r="U34" t="n">
-        <v>182.0733530450872</v>
+        <v>182.0733530450871</v>
       </c>
       <c r="V34" t="n">
-        <v>155.896472491642</v>
+        <v>155.8964724916419</v>
       </c>
       <c r="W34" t="n">
         <v>181.0633585622552</v>
       </c>
       <c r="X34" t="n">
-        <v>126.7084605580584</v>
+        <v>126.7084605580583</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.5833283141261</v>
+        <v>117.583328314126</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>238.6094131399916</v>
+        <v>238.6094131399917</v>
       </c>
       <c r="C35" t="n">
-        <v>226.6207300976734</v>
+        <v>226.6207300976735</v>
       </c>
       <c r="D35" t="n">
-        <v>217.6020341422013</v>
+        <v>217.6020341422014</v>
       </c>
       <c r="E35" t="n">
-        <v>239.3441717121069</v>
+        <v>239.344171712107</v>
       </c>
       <c r="F35" t="n">
         <v>258.5159878000841</v>
       </c>
       <c r="G35" t="n">
-        <v>259.897285797177</v>
+        <v>259.8972857971771</v>
       </c>
       <c r="H35" t="n">
         <v>172.346508934066</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.2849805293414</v>
+        <v>21.28498052934151</v>
       </c>
       <c r="T35" t="n">
-        <v>68.20541758475878</v>
+        <v>68.20541758475886</v>
       </c>
       <c r="U35" t="n">
-        <v>100.7986343482722</v>
+        <v>100.7986343482723</v>
       </c>
       <c r="V35" t="n">
         <v>182.1157903801708</v>
@@ -3329,10 +3329,10 @@
         <v>207.4158898581277</v>
       </c>
       <c r="X35" t="n">
-        <v>226.7161480908743</v>
+        <v>226.7161480908744</v>
       </c>
       <c r="Y35" t="n">
-        <v>238.112745887073</v>
+        <v>238.1127458870731</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I36" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S36" t="n">
         <v>145.7858681427258</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.22612401468871</v>
+        <v>30.22612401468879</v>
       </c>
       <c r="C37" t="n">
-        <v>16.42611886008919</v>
+        <v>16.42611886008928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04748325766757944</v>
+        <v>0.0474832576676647</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.48926546793578</v>
+        <v>15.48926546793587</v>
       </c>
       <c r="H37" t="n">
-        <v>4.083885860631669</v>
+        <v>4.083885860631758</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.48732065732632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.76407371112006</v>
+        <v>68.25139436844513</v>
       </c>
       <c r="T37" t="n">
-        <v>78.2955680635276</v>
+        <v>78.2955680635277</v>
       </c>
       <c r="U37" t="n">
-        <v>132.8111409677595</v>
+        <v>132.8111409677596</v>
       </c>
       <c r="V37" t="n">
-        <v>106.6342604143143</v>
+        <v>106.6342604143144</v>
       </c>
       <c r="W37" t="n">
         <v>131.8011464849276</v>
       </c>
       <c r="X37" t="n">
-        <v>77.44624848073067</v>
+        <v>77.44624848073076</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.32111623679836</v>
+        <v>68.32111623679845</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.28498052934148</v>
+        <v>21.28498052934151</v>
       </c>
       <c r="T38" t="n">
         <v>68.20541758475886</v>
@@ -3600,7 +3600,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I39" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S39" t="n">
         <v>145.7858681427258</v>
@@ -3676,7 +3676,7 @@
         <v>15.48926546793587</v>
       </c>
       <c r="H40" t="n">
-        <v>4.083885860631755</v>
+        <v>4.083885860631758</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>12.4873206573253</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.76407371112015</v>
+        <v>68.25139436844513</v>
       </c>
       <c r="T40" t="n">
-        <v>78.29556806352768</v>
+        <v>78.2955680635277</v>
       </c>
       <c r="U40" t="n">
         <v>132.8111409677596</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.6094131399917</v>
+        <v>238.6094131399916</v>
       </c>
       <c r="C41" t="n">
-        <v>226.6207300976734</v>
+        <v>226.6207300976733</v>
       </c>
       <c r="D41" t="n">
-        <v>217.6020341422014</v>
+        <v>217.6020341422013</v>
       </c>
       <c r="E41" t="n">
-        <v>239.3441717121069</v>
+        <v>239.3441717121068</v>
       </c>
       <c r="F41" t="n">
-        <v>258.5159878000841</v>
+        <v>258.515987800084</v>
       </c>
       <c r="G41" t="n">
-        <v>259.897285797177</v>
+        <v>259.8972857971769</v>
       </c>
       <c r="H41" t="n">
-        <v>172.346508934066</v>
+        <v>172.3465089340659</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934137</v>
       </c>
       <c r="T41" t="n">
-        <v>68.20541758475881</v>
+        <v>68.20541758475872</v>
       </c>
       <c r="U41" t="n">
-        <v>100.7986343482722</v>
+        <v>100.7986343482721</v>
       </c>
       <c r="V41" t="n">
-        <v>182.1157903801708</v>
+        <v>182.1157903801707</v>
       </c>
       <c r="W41" t="n">
-        <v>207.4158898581277</v>
+        <v>207.4158898581276</v>
       </c>
       <c r="X41" t="n">
-        <v>226.7161480908743</v>
+        <v>226.7161480908742</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.1127458870731</v>
+        <v>238.112745887073</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I42" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S42" t="n">
         <v>145.7858681427258</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.22612401468874</v>
+        <v>30.22612401468865</v>
       </c>
       <c r="C43" t="n">
-        <v>16.42611886008922</v>
+        <v>16.42611886008913</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04748325766760786</v>
+        <v>0.04748325766752259</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>12.48732065732608</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.48926546793581</v>
+        <v>15.48926546793573</v>
       </c>
       <c r="H43" t="n">
-        <v>4.083885860631698</v>
+        <v>4.083885860631616</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.76407371112009</v>
+        <v>68.2513943684466</v>
       </c>
       <c r="T43" t="n">
-        <v>78.29556806352763</v>
+        <v>78.29556806352755</v>
       </c>
       <c r="U43" t="n">
         <v>132.8111409677595</v>
       </c>
       <c r="V43" t="n">
-        <v>106.6342604143143</v>
+        <v>106.6342604143142</v>
       </c>
       <c r="W43" t="n">
-        <v>131.8011464849276</v>
+        <v>131.8011464849275</v>
       </c>
       <c r="X43" t="n">
-        <v>77.4462484807307</v>
+        <v>77.44624848073062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.32111623679839</v>
+        <v>68.3211162367983</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.28498052934142</v>
+        <v>21.28498052934145</v>
       </c>
       <c r="T44" t="n">
         <v>68.20541758475881</v>
@@ -4074,7 +4074,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.85006423600236</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S45" t="n">
         <v>145.7858681427258</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>12.48732065732608</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>15.48926546793581</v>
       </c>
       <c r="H46" t="n">
-        <v>4.083885860631698</v>
+        <v>16.57120651795735</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.76407371112009</v>
+        <v>55.7640737111201</v>
       </c>
       <c r="T46" t="n">
-        <v>78.29556806352763</v>
+        <v>78.29556806352764</v>
       </c>
       <c r="U46" t="n">
         <v>132.8111409677595</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.7132315847105</v>
+        <v>1107.879750097706</v>
       </c>
       <c r="C11" t="n">
-        <v>894.7132315847105</v>
+        <v>1107.879750097706</v>
       </c>
       <c r="D11" t="n">
-        <v>625.1533869185201</v>
+        <v>1107.879750097706</v>
       </c>
       <c r="E11" t="n">
-        <v>624.5771755632576</v>
+        <v>816.3581503103985</v>
       </c>
       <c r="F11" t="n">
-        <v>624.5771755632576</v>
+        <v>505.4710797271543</v>
       </c>
       <c r="G11" t="n">
-        <v>312.2948544778993</v>
+        <v>193.1887586417961</v>
       </c>
       <c r="H11" t="n">
         <v>88.44766153709769</v>
       </c>
       <c r="I11" t="n">
-        <v>40.38935010748634</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J11" t="n">
-        <v>96.04905676487272</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="K11" t="n">
-        <v>405.6999436066168</v>
+        <v>350.0402369492303</v>
       </c>
       <c r="L11" t="n">
-        <v>839.8192568373645</v>
+        <v>784.1595501799778</v>
       </c>
       <c r="M11" t="n">
-        <v>839.8192568373645</v>
+        <v>1273.350590346704</v>
       </c>
       <c r="N11" t="n">
-        <v>1315.655091073237</v>
+        <v>1749.186424582576</v>
       </c>
       <c r="O11" t="n">
-        <v>1712.730386904789</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="P11" t="n">
-        <v>2019.467505374317</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="Q11" t="n">
-        <v>2019.467505374317</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="R11" t="n">
-        <v>2019.467505374317</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="S11" t="n">
         <v>1948.20771486253</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.553543486685</v>
+        <v>1948.20771486253</v>
       </c>
       <c r="U11" t="n">
-        <v>1677.976930935574</v>
+        <v>1948.20771486253</v>
       </c>
       <c r="V11" t="n">
-        <v>1444.2617769381</v>
+        <v>1948.20771486253</v>
       </c>
       <c r="W11" t="n">
-        <v>1184.990966902287</v>
+        <v>1688.936904826716</v>
       </c>
       <c r="X11" t="n">
-        <v>1184.990966902287</v>
+        <v>1688.936904826716</v>
       </c>
       <c r="Y11" t="n">
-        <v>894.7132315847105</v>
+        <v>1398.65916950914</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>705.9309535409042</v>
+        <v>647.8195346760752</v>
       </c>
       <c r="C12" t="n">
-        <v>647.4914008884443</v>
+        <v>486.1158619170299</v>
       </c>
       <c r="D12" t="n">
-        <v>508.6527638786563</v>
+        <v>347.277224907242</v>
       </c>
       <c r="E12" t="n">
-        <v>361.6247539355276</v>
+        <v>200.2492149641132</v>
       </c>
       <c r="F12" t="n">
-        <v>226.9309558854019</v>
+        <v>65.55541691398754</v>
       </c>
       <c r="G12" t="n">
-        <v>98.50076897231514</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="H12" t="n">
-        <v>98.50076897231514</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="I12" t="n">
-        <v>40.38935010748634</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J12" t="n">
-        <v>40.38935010748634</v>
+        <v>128.2666767534135</v>
       </c>
       <c r="K12" t="n">
-        <v>317.0923172358814</v>
+        <v>404.9696438818086</v>
       </c>
       <c r="L12" t="n">
-        <v>699.9584754418496</v>
+        <v>504.8652248399728</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.776683021993</v>
+        <v>1004.683432420116</v>
       </c>
       <c r="N12" t="n">
-        <v>1199.776683021993</v>
+        <v>1004.683432420116</v>
       </c>
       <c r="O12" t="n">
-        <v>1661.540472605652</v>
+        <v>1466.447222003775</v>
       </c>
       <c r="P12" t="n">
-        <v>2019.467505374317</v>
+        <v>1824.374254772439</v>
       </c>
       <c r="Q12" t="n">
-        <v>2019.467505374317</v>
+        <v>2019.467505374316</v>
       </c>
       <c r="R12" t="n">
-        <v>1978.20481422684</v>
+        <v>2014.076855091899</v>
       </c>
       <c r="S12" t="n">
-        <v>1830.94636155742</v>
+        <v>1970.082522529065</v>
       </c>
       <c r="T12" t="n">
-        <v>1643.463668712329</v>
+        <v>1885.86394979056</v>
       </c>
       <c r="U12" t="n">
-        <v>1424.988502170088</v>
+        <v>1667.388783248319</v>
       </c>
       <c r="V12" t="n">
-        <v>1196.592879618422</v>
+        <v>1438.993160696653</v>
       </c>
       <c r="W12" t="n">
-        <v>955.2770108517324</v>
+        <v>1197.677291929963</v>
       </c>
       <c r="X12" t="n">
-        <v>851.3434824594152</v>
+        <v>999.7603038077574</v>
       </c>
       <c r="Y12" t="n">
-        <v>762.0862762155796</v>
+        <v>807.2389774573362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.2187478599362</v>
+        <v>407.2187478599359</v>
       </c>
       <c r="C13" t="n">
-        <v>340.8668984282019</v>
+        <v>340.8668984282018</v>
       </c>
       <c r="D13" t="n">
-        <v>291.0591253625502</v>
+        <v>291.05912536255</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3142312304545</v>
+        <v>242.3142312304544</v>
       </c>
       <c r="F13" t="n">
-        <v>193.0976963628171</v>
+        <v>193.097696362817</v>
       </c>
       <c r="G13" t="n">
         <v>127.6921634888135</v>
       </c>
       <c r="H13" t="n">
-        <v>73.80721607673333</v>
+        <v>73.80721607673335</v>
       </c>
       <c r="I13" t="n">
-        <v>40.38935010748634</v>
+        <v>40.38935010748633</v>
       </c>
       <c r="J13" t="n">
         <v>100.0663101762934</v>
@@ -5206,7 +5206,7 @@
         <v>501.6167201631968</v>
       </c>
       <c r="M13" t="n">
-        <v>759.242868347272</v>
+        <v>759.2428683472718</v>
       </c>
       <c r="N13" t="n">
         <v>1016.384227728628</v>
@@ -5224,7 +5224,7 @@
         <v>1493.478722599823</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.391565237755</v>
+        <v>1387.391565237754</v>
       </c>
       <c r="T13" t="n">
         <v>1258.545322671234</v>
@@ -5233,16 +5233,16 @@
         <v>1074.632844847914</v>
       </c>
       <c r="V13" t="n">
-        <v>917.161660512922</v>
+        <v>917.1616605129219</v>
       </c>
       <c r="W13" t="n">
-        <v>734.2693791369067</v>
+        <v>734.2693791369065</v>
       </c>
       <c r="X13" t="n">
-        <v>606.2810351388679</v>
+        <v>606.2810351388677</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5099964377305</v>
+        <v>487.5099964377303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1213.27617568544</v>
+        <v>1559.620221092553</v>
       </c>
       <c r="C14" t="n">
-        <v>1213.27617568544</v>
+        <v>1280.950582531946</v>
       </c>
       <c r="D14" t="n">
-        <v>943.7163310192494</v>
+        <v>1011.390737865755</v>
       </c>
       <c r="E14" t="n">
-        <v>943.7163310192494</v>
+        <v>719.8691380784478</v>
       </c>
       <c r="F14" t="n">
-        <v>632.8292604360051</v>
+        <v>408.9820674952036</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5469393506468</v>
+        <v>96.69974640984509</v>
       </c>
       <c r="H14" t="n">
-        <v>96.69974640984513</v>
+        <v>96.69974640984509</v>
       </c>
       <c r="I14" t="n">
         <v>48.64143498023373</v>
@@ -5279,49 +5279,49 @@
         <v>167.0192570278581</v>
       </c>
       <c r="K14" t="n">
-        <v>175.6704192122475</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L14" t="n">
-        <v>609.7897324429952</v>
+        <v>910.7894571003496</v>
       </c>
       <c r="M14" t="n">
-        <v>1098.980772609721</v>
+        <v>1399.980497267076</v>
       </c>
       <c r="N14" t="n">
-        <v>1574.816606845593</v>
+        <v>1875.816331502948</v>
       </c>
       <c r="O14" t="n">
-        <v>1971.891902677145</v>
+        <v>2272.8916273345</v>
       </c>
       <c r="P14" t="n">
         <v>2278.629021146673</v>
       </c>
       <c r="Q14" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R14" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.8119584999</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T14" t="n">
-        <v>2242.157787124055</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="U14" t="n">
-        <v>2242.157787124055</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="V14" t="n">
-        <v>2008.442633126582</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="W14" t="n">
-        <v>1749.171823090768</v>
+        <v>2419.443396193485</v>
       </c>
       <c r="X14" t="n">
-        <v>1470.405802718847</v>
+        <v>2140.677375821564</v>
       </c>
       <c r="Y14" t="n">
-        <v>1213.27617568544</v>
+        <v>1850.399640503987</v>
       </c>
     </row>
     <row r="15">
@@ -5358,28 +5358,28 @@
         <v>48.64143498023373</v>
       </c>
       <c r="K15" t="n">
-        <v>325.3444021086289</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="L15" t="n">
-        <v>754.649165039536</v>
+        <v>477.9461979111408</v>
       </c>
       <c r="M15" t="n">
-        <v>829.9797404626504</v>
+        <v>1037.061122152423</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.287676057486</v>
+        <v>1624.369057747258</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.051465641145</v>
+        <v>2086.132847330918</v>
       </c>
       <c r="P15" t="n">
-        <v>2236.97849840981</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q15" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R15" t="n">
-        <v>2390.80905786421</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S15" t="n">
         <v>2340.031047765963</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.4708327326827</v>
+        <v>415.4708327326833</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1189833009485</v>
+        <v>349.1189833009491</v>
       </c>
       <c r="D16" t="n">
-        <v>299.3112102352966</v>
+        <v>299.3112102352974</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5663161032009</v>
+        <v>250.5663161032017</v>
       </c>
       <c r="F16" t="n">
-        <v>201.3497812355646</v>
+        <v>201.3497812355644</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9442483615611</v>
+        <v>135.9442483615609</v>
       </c>
       <c r="H16" t="n">
-        <v>82.0593009494808</v>
+        <v>82.05930094948073</v>
       </c>
       <c r="I16" t="n">
         <v>48.64143498023373</v>
@@ -5446,7 +5446,7 @@
         <v>767.4949532200192</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.636312601376</v>
+        <v>1024.636312601375</v>
       </c>
       <c r="O16" t="n">
         <v>1258.955544080621</v>
@@ -5470,16 +5470,16 @@
         <v>1082.884929720661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.4137453856688</v>
+        <v>925.4137453856694</v>
       </c>
       <c r="W16" t="n">
-        <v>742.5214640096533</v>
+        <v>742.521464009654</v>
       </c>
       <c r="X16" t="n">
-        <v>614.5331200116146</v>
+        <v>614.533120011615</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.7620813104771</v>
+        <v>495.7620813104776</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>902.1404573297972</v>
       </c>
       <c r="E17" t="n">
-        <v>681.8786480542765</v>
+        <v>681.8786480542766</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2513679828193</v>
+        <v>442.2513679828195</v>
       </c>
       <c r="G17" t="n">
-        <v>201.2288374092484</v>
+        <v>201.2288374092483</v>
       </c>
       <c r="H17" t="n">
         <v>48.64143498023373</v>
@@ -5516,31 +5516,31 @@
         <v>167.0192570278581</v>
       </c>
       <c r="K17" t="n">
-        <v>175.6704192122475</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L17" t="n">
-        <v>609.7897324429952</v>
+        <v>910.7894571003496</v>
       </c>
       <c r="M17" t="n">
-        <v>1098.980772609721</v>
+        <v>1399.980497267076</v>
       </c>
       <c r="N17" t="n">
-        <v>1574.816606845593</v>
+        <v>1875.816331502948</v>
       </c>
       <c r="O17" t="n">
-        <v>1971.891902677145</v>
+        <v>2272.8916273345</v>
       </c>
       <c r="P17" t="n">
-        <v>2278.629021146673</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S17" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T17" t="n">
         <v>2384.677368147628</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>818.023497235215</v>
+        <v>818.0234972352146</v>
       </c>
       <c r="C18" t="n">
-        <v>656.3198244761697</v>
+        <v>656.3198244761693</v>
       </c>
       <c r="D18" t="n">
-        <v>517.4811874663818</v>
+        <v>517.4811874663814</v>
       </c>
       <c r="E18" t="n">
-        <v>370.453177523253</v>
+        <v>370.4531775232526</v>
       </c>
       <c r="F18" t="n">
-        <v>235.7593794731274</v>
+        <v>235.7593794731269</v>
       </c>
       <c r="G18" t="n">
-        <v>145.698216266385</v>
+        <v>203.8096351312138</v>
       </c>
       <c r="H18" t="n">
-        <v>48.64143498023373</v>
+        <v>106.7528538450625</v>
       </c>
       <c r="I18" t="n">
         <v>48.64143498023373</v>
       </c>
       <c r="J18" t="n">
-        <v>123.9720104033481</v>
+        <v>117.8773695326073</v>
       </c>
       <c r="K18" t="n">
-        <v>400.6749775317432</v>
+        <v>394.5803366610024</v>
       </c>
       <c r="L18" t="n">
-        <v>829.9797404626504</v>
+        <v>823.8850995919095</v>
       </c>
       <c r="M18" t="n">
-        <v>829.9797404626504</v>
+        <v>1383.000023833192</v>
       </c>
       <c r="N18" t="n">
-        <v>1417.287676057486</v>
+        <v>1970.307959428027</v>
       </c>
       <c r="O18" t="n">
-        <v>1879.051465641145</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="P18" t="n">
-        <v>2236.97849840981</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="Q18" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R18" t="n">
-        <v>2390.80905786421</v>
+        <v>2390.809057864209</v>
       </c>
       <c r="S18" t="n">
-        <v>2243.55060519479</v>
+        <v>2243.550605194789</v>
       </c>
       <c r="T18" t="n">
         <v>2056.067912349699</v>
       </c>
       <c r="U18" t="n">
-        <v>1837.592745807459</v>
+        <v>1837.592745807458</v>
       </c>
       <c r="V18" t="n">
-        <v>1609.197123255793</v>
+        <v>1609.197123255792</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.881254489103</v>
+        <v>1367.881254489102</v>
       </c>
       <c r="X18" t="n">
         <v>1169.964266366897</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.442940016476</v>
+        <v>977.4429400164755</v>
       </c>
     </row>
     <row r="19">
@@ -5677,46 +5677,46 @@
         <v>110.7239645489979</v>
       </c>
       <c r="L19" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M19" t="n">
-        <v>404.1905008018189</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N19" t="n">
-        <v>560.1226960667107</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O19" t="n">
-        <v>693.2327634294919</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P19" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q19" t="n">
-        <v>768.2520046402587</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R19" t="n">
-        <v>629.9754331875524</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S19" t="n">
-        <v>529.9957187755434</v>
+        <v>733.4246377899772</v>
       </c>
       <c r="T19" t="n">
-        <v>472.4092667208099</v>
+        <v>675.8381857352437</v>
       </c>
       <c r="U19" t="n">
-        <v>359.7565794092765</v>
+        <v>563.1854984237103</v>
       </c>
       <c r="V19" t="n">
-        <v>273.5451855860716</v>
+        <v>476.9741046005055</v>
       </c>
       <c r="W19" t="n">
-        <v>161.9126947218432</v>
+        <v>365.3416137362771</v>
       </c>
       <c r="X19" t="n">
-        <v>105.1841412355915</v>
+        <v>279.708051853964</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.67289304624106</v>
+        <v>57.67289304624103</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1100.440511484202</v>
       </c>
       <c r="D20" t="n">
-        <v>902.1404573297975</v>
+        <v>902.1404573297978</v>
       </c>
       <c r="E20" t="n">
-        <v>681.8786480542768</v>
+        <v>681.8786480542771</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2513679828196</v>
+        <v>442.2513679828198</v>
       </c>
       <c r="G20" t="n">
         <v>201.2288374092484</v>
@@ -5753,10 +5753,10 @@
         <v>167.0192570278581</v>
       </c>
       <c r="K20" t="n">
-        <v>476.6701438696023</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L20" t="n">
-        <v>910.78945710035</v>
+        <v>910.7894571003496</v>
       </c>
       <c r="M20" t="n">
         <v>1098.980772609721</v>
@@ -5771,16 +5771,16 @@
         <v>2278.629021146673</v>
       </c>
       <c r="Q20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S20" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="T20" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.677368147628</v>
       </c>
       <c r="U20" t="n">
         <v>2304.360546108305</v>
@@ -5795,7 +5795,7 @@
         <v>1746.387933238458</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.369988432669</v>
+        <v>1527.369988432668</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>818.023497235215</v>
+        <v>914.5039398063883</v>
       </c>
       <c r="C21" t="n">
-        <v>656.3198244761697</v>
+        <v>752.800267047343</v>
       </c>
       <c r="D21" t="n">
-        <v>517.4811874663818</v>
+        <v>613.9616300375551</v>
       </c>
       <c r="E21" t="n">
-        <v>370.453177523253</v>
+        <v>466.9336200944263</v>
       </c>
       <c r="F21" t="n">
-        <v>235.7593794731274</v>
+        <v>332.2398220443006</v>
       </c>
       <c r="G21" t="n">
         <v>203.8096351312138</v>
@@ -5829,16 +5829,16 @@
         <v>48.64143498023373</v>
       </c>
       <c r="J21" t="n">
-        <v>136.518761626161</v>
+        <v>48.64143498023373</v>
       </c>
       <c r="K21" t="n">
-        <v>413.2217287545561</v>
+        <v>325.3444021086288</v>
       </c>
       <c r="L21" t="n">
-        <v>842.5264916854633</v>
+        <v>754.6491650395359</v>
       </c>
       <c r="M21" t="n">
-        <v>1401.641415926746</v>
+        <v>829.979740462651</v>
       </c>
       <c r="N21" t="n">
         <v>1417.287676057486</v>
@@ -5850,31 +5850,31 @@
         <v>2236.97849840981</v>
       </c>
       <c r="Q21" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="R21" t="n">
-        <v>2390.80905786421</v>
+        <v>2432.071749011686</v>
       </c>
       <c r="S21" t="n">
-        <v>2243.55060519479</v>
+        <v>2340.031047765963</v>
       </c>
       <c r="T21" t="n">
-        <v>2056.067912349699</v>
+        <v>2152.548354920872</v>
       </c>
       <c r="U21" t="n">
-        <v>1837.592745807459</v>
+        <v>1934.073188378632</v>
       </c>
       <c r="V21" t="n">
-        <v>1609.197123255793</v>
+        <v>1705.677565826966</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.881254489103</v>
+        <v>1464.361697060276</v>
       </c>
       <c r="X21" t="n">
-        <v>1169.964266366897</v>
+        <v>1266.44470893807</v>
       </c>
       <c r="Y21" t="n">
-        <v>977.442940016476</v>
+        <v>1073.923382587649</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.64143498023373</v>
+        <v>269.665594917993</v>
       </c>
       <c r="C22" t="n">
-        <v>48.64143498023373</v>
+        <v>269.665594917993</v>
       </c>
       <c r="D22" t="n">
-        <v>48.64143498023373</v>
+        <v>269.665594917993</v>
       </c>
       <c r="E22" t="n">
-        <v>48.64143498023373</v>
+        <v>201.1220899544566</v>
       </c>
       <c r="F22" t="n">
         <v>48.64143498023373</v>
@@ -5914,46 +5914,46 @@
         <v>110.7239645489979</v>
       </c>
       <c r="L22" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M22" t="n">
-        <v>404.1905008018189</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N22" t="n">
-        <v>560.1226960667107</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O22" t="n">
-        <v>693.2327634294919</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P22" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q22" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="R22" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="S22" t="n">
-        <v>751.019878713303</v>
+        <v>751.0198787133029</v>
       </c>
       <c r="T22" t="n">
-        <v>693.4334266585695</v>
+        <v>693.4334266585694</v>
       </c>
       <c r="U22" t="n">
-        <v>534.2804900276491</v>
+        <v>580.7807393470359</v>
       </c>
       <c r="V22" t="n">
-        <v>448.0690962044442</v>
+        <v>494.569345523831</v>
       </c>
       <c r="W22" t="n">
-        <v>336.4366053402157</v>
+        <v>382.9368546596025</v>
       </c>
       <c r="X22" t="n">
-        <v>279.708051853964</v>
+        <v>326.2083011733508</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.1968036646136</v>
+        <v>278.6970529840003</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1100.440511484201</v>
       </c>
       <c r="D23" t="n">
-        <v>902.1404573297973</v>
+        <v>902.1404573297972</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8786480542764</v>
+        <v>681.8786480542765</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2513679828191</v>
+        <v>442.2513679828193</v>
       </c>
       <c r="G23" t="n">
         <v>201.2288374092484</v>
       </c>
       <c r="H23" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="I23" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J23" t="n">
         <v>167.0192570278581</v>
       </c>
       <c r="K23" t="n">
-        <v>476.6701438696023</v>
+        <v>476.6701438696022</v>
       </c>
       <c r="L23" t="n">
-        <v>609.7897324429952</v>
+        <v>910.7894571003496</v>
       </c>
       <c r="M23" t="n">
-        <v>1098.980772609721</v>
+        <v>1098.980772609722</v>
       </c>
       <c r="N23" t="n">
-        <v>1574.816606845593</v>
+        <v>1574.816606845594</v>
       </c>
       <c r="O23" t="n">
-        <v>1971.891902677145</v>
+        <v>1971.891902677146</v>
       </c>
       <c r="P23" t="n">
-        <v>2278.629021146673</v>
+        <v>2278.629021146674</v>
       </c>
       <c r="Q23" t="n">
         <v>2432.071749011687</v>
@@ -6017,7 +6017,7 @@
         <v>2432.071749011687</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.677368147628</v>
+        <v>2384.677368147629</v>
       </c>
       <c r="U23" t="n">
         <v>2304.360546108304</v>
@@ -6026,7 +6026,7 @@
         <v>2141.905182622618</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.894163098591</v>
+        <v>1953.894163098592</v>
       </c>
       <c r="X23" t="n">
         <v>1746.387933238457</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>859.2861883826922</v>
+        <v>856.3925209415594</v>
       </c>
       <c r="C24" t="n">
-        <v>697.5825156236469</v>
+        <v>694.6888481825141</v>
       </c>
       <c r="D24" t="n">
-        <v>558.743878613859</v>
+        <v>555.8502111727262</v>
       </c>
       <c r="E24" t="n">
-        <v>411.7158686707302</v>
+        <v>408.8222012295975</v>
       </c>
       <c r="F24" t="n">
-        <v>277.0220706206046</v>
+        <v>274.1284031794718</v>
       </c>
       <c r="G24" t="n">
-        <v>203.8096351312138</v>
+        <v>145.6982162663851</v>
       </c>
       <c r="H24" t="n">
-        <v>106.7528538450625</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="I24" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J24" t="n">
-        <v>136.518761626161</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="K24" t="n">
-        <v>413.2217287545561</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="L24" t="n">
-        <v>842.5264916854633</v>
+        <v>477.9461979111408</v>
       </c>
       <c r="M24" t="n">
-        <v>1401.641415926746</v>
+        <v>1037.061122152423</v>
       </c>
       <c r="N24" t="n">
-        <v>1417.287676057486</v>
+        <v>1624.369057747258</v>
       </c>
       <c r="O24" t="n">
-        <v>1879.051465641145</v>
+        <v>2086.132847330918</v>
       </c>
       <c r="P24" t="n">
-        <v>2236.97849840981</v>
+        <v>2432.071749011687</v>
       </c>
       <c r="Q24" t="n">
         <v>2432.071749011687</v>
       </c>
       <c r="R24" t="n">
-        <v>2432.071749011687</v>
+        <v>2429.178081570554</v>
       </c>
       <c r="S24" t="n">
-        <v>2284.813296342267</v>
+        <v>2281.919628901134</v>
       </c>
       <c r="T24" t="n">
-        <v>2097.330603497177</v>
+        <v>2094.436936056044</v>
       </c>
       <c r="U24" t="n">
-        <v>1878.855436954936</v>
+        <v>1875.961769513803</v>
       </c>
       <c r="V24" t="n">
-        <v>1650.45981440327</v>
+        <v>1647.566146962137</v>
       </c>
       <c r="W24" t="n">
-        <v>1409.14394563658</v>
+        <v>1406.250278195447</v>
       </c>
       <c r="X24" t="n">
-        <v>1211.226957514374</v>
+        <v>1208.333290073241</v>
       </c>
       <c r="Y24" t="n">
-        <v>1018.705631163953</v>
+        <v>1015.81196372282</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.6504492189149</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="C25" t="n">
-        <v>200.6504492189149</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="D25" t="n">
-        <v>200.6504492189149</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="E25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="F25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="G25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="H25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="I25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64143498023373</v>
+        <v>48.64143498023375</v>
       </c>
       <c r="K25" t="n">
         <v>110.7239645489979</v>
       </c>
       <c r="L25" t="n">
-        <v>247.7735167342082</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M25" t="n">
-        <v>404.1905008018189</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N25" t="n">
-        <v>560.1226960667107</v>
+        <v>560.1226960667105</v>
       </c>
       <c r="O25" t="n">
-        <v>693.2327634294919</v>
+        <v>693.2327634294918</v>
       </c>
       <c r="P25" t="n">
-        <v>785.8472455635845</v>
+        <v>785.8472455635844</v>
       </c>
       <c r="Q25" t="n">
-        <v>785.8472455635845</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="R25" t="n">
-        <v>716.8320998645063</v>
+        <v>768.2520046402585</v>
       </c>
       <c r="S25" t="n">
-        <v>682.0047330142248</v>
+        <v>733.4246377899771</v>
       </c>
       <c r="T25" t="n">
-        <v>624.4182809594913</v>
+        <v>675.8381857352435</v>
       </c>
       <c r="U25" t="n">
-        <v>511.7655936479579</v>
+        <v>563.1854984237101</v>
       </c>
       <c r="V25" t="n">
-        <v>425.5541998247529</v>
+        <v>476.9741046005051</v>
       </c>
       <c r="W25" t="n">
-        <v>313.9217089605245</v>
+        <v>365.3416137362767</v>
       </c>
       <c r="X25" t="n">
-        <v>257.1931554742727</v>
+        <v>134.0891496316525</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.6819072849223</v>
+        <v>57.6728930462411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1804.80813604549</v>
+        <v>1804.808136045491</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.138497484883</v>
+        <v>1526.138497484884</v>
       </c>
       <c r="D26" t="n">
-        <v>1256.578652818692</v>
+        <v>1256.578652818693</v>
       </c>
       <c r="E26" t="n">
-        <v>965.0570530313844</v>
+        <v>965.0570530313855</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1699824481402</v>
+        <v>654.1699824481414</v>
       </c>
       <c r="G26" t="n">
-        <v>341.887661362782</v>
+        <v>341.8876613627831</v>
       </c>
       <c r="H26" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J26" t="n">
         <v>289.5691431564579</v>
@@ -6230,46 +6230,46 @@
         <v>700.4291941146664</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.757671461879</v>
+        <v>1134.548507345414</v>
       </c>
       <c r="M26" t="n">
-        <v>1826.157875745069</v>
+        <v>1724.948711628605</v>
       </c>
       <c r="N26" t="n">
-        <v>2403.202874097406</v>
+        <v>2301.993709980941</v>
       </c>
       <c r="O26" t="n">
-        <v>2901.487334045422</v>
+        <v>2800.278169928958</v>
       </c>
       <c r="P26" t="n">
         <v>3208.22445251495</v>
       </c>
       <c r="Q26" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R26" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S26" t="n">
-        <v>3427.848059106664</v>
+        <v>3427.848059106665</v>
       </c>
       <c r="T26" t="n">
-        <v>3309.193887730819</v>
+        <v>3309.193887730821</v>
       </c>
       <c r="U26" t="n">
-        <v>3157.617275179708</v>
+        <v>3157.617275179709</v>
       </c>
       <c r="V26" t="n">
-        <v>2923.902121182235</v>
+        <v>2923.902121182236</v>
       </c>
       <c r="W26" t="n">
-        <v>2664.631311146421</v>
+        <v>2664.631311146423</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.8652907745</v>
+        <v>2385.865290774502</v>
       </c>
       <c r="Y26" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456925</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>353.5805440564359</v>
       </c>
       <c r="G27" t="n">
-        <v>225.1503571433491</v>
+        <v>225.1503571433492</v>
       </c>
       <c r="H27" t="n">
-        <v>128.0935758571978</v>
+        <v>128.0935758571979</v>
       </c>
       <c r="I27" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J27" t="n">
         <v>157.8594836382963</v>
@@ -6309,19 +6309,19 @@
         <v>434.5624507666914</v>
       </c>
       <c r="L27" t="n">
-        <v>863.8672136975986</v>
+        <v>863.8672136975985</v>
       </c>
       <c r="M27" t="n">
         <v>1422.982137938881</v>
       </c>
       <c r="N27" t="n">
-        <v>1535.108840640794</v>
+        <v>1535.108840640795</v>
       </c>
       <c r="O27" t="n">
         <v>1996.872630224454</v>
       </c>
       <c r="P27" t="n">
-        <v>2354.799662993118</v>
+        <v>2354.799662993119</v>
       </c>
       <c r="Q27" t="n">
         <v>2549.892913594995</v>
@@ -6367,28 +6367,28 @@
         <v>320.6519322474327</v>
       </c>
       <c r="E28" t="n">
-        <v>271.907038115337</v>
+        <v>271.9070381153371</v>
       </c>
       <c r="F28" t="n">
-        <v>222.6905032476996</v>
+        <v>222.6905032476997</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2849703736961</v>
+        <v>157.2849703736962</v>
       </c>
       <c r="H28" t="n">
-        <v>103.4000229616162</v>
+        <v>103.400022961616</v>
       </c>
       <c r="I28" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J28" t="n">
         <v>129.6591170611761</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9508107464048</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L28" t="n">
-        <v>531.2095270480795</v>
+        <v>531.2095270480794</v>
       </c>
       <c r="M28" t="n">
         <v>788.8356752321545</v>
@@ -6397,16 +6397,16 @@
         <v>1045.977034613511</v>
       </c>
       <c r="O28" t="n">
-        <v>1280.296266092756</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P28" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q28" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S28" t="n">
         <v>1416.984372122637</v>
@@ -6415,16 +6415,16 @@
         <v>1288.138129556117</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.225651732797</v>
+        <v>1104.225651732796</v>
       </c>
       <c r="V28" t="n">
-        <v>946.7544673978048</v>
+        <v>946.7544673978045</v>
       </c>
       <c r="W28" t="n">
-        <v>763.8621860217894</v>
+        <v>763.8621860217892</v>
       </c>
       <c r="X28" t="n">
-        <v>635.8738420237506</v>
+        <v>635.8738420237504</v>
       </c>
       <c r="Y28" t="n">
         <v>517.102803322613</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.80813604549</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.138497484884</v>
+        <v>1526.138497484882</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.578652818693</v>
+        <v>1256.578652818691</v>
       </c>
       <c r="E29" t="n">
-        <v>965.0570530313851</v>
+        <v>965.0570530313839</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1699824481409</v>
+        <v>654.1699824481402</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8876613627826</v>
+        <v>341.887661362782</v>
       </c>
       <c r="H29" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I29" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J29" t="n">
-        <v>289.5691431564579</v>
+        <v>289.5691431564578</v>
       </c>
       <c r="K29" t="n">
-        <v>700.4291941146665</v>
+        <v>689.9601672638764</v>
       </c>
       <c r="L29" t="n">
-        <v>1235.757671461879</v>
+        <v>1225.288644611088</v>
       </c>
       <c r="M29" t="n">
-        <v>1826.157875745069</v>
+        <v>1714.479684777814</v>
       </c>
       <c r="N29" t="n">
-        <v>2403.202874097406</v>
+        <v>2291.524683130151</v>
       </c>
       <c r="O29" t="n">
-        <v>2901.487334045422</v>
+        <v>2789.809143078167</v>
       </c>
       <c r="P29" t="n">
-        <v>3244.455957636974</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q29" t="n">
-        <v>3499.107849618452</v>
+        <v>3452.407317645637</v>
       </c>
       <c r="R29" t="n">
-        <v>3499.107849618452</v>
+        <v>3499.107849618451</v>
       </c>
       <c r="S29" t="n">
-        <v>3427.848059106665</v>
+        <v>3427.848059106664</v>
       </c>
       <c r="T29" t="n">
-        <v>3309.19388773082</v>
+        <v>3309.193887730818</v>
       </c>
       <c r="U29" t="n">
         <v>3157.617275179708</v>
       </c>
       <c r="V29" t="n">
-        <v>2923.902121182236</v>
+        <v>2923.902121182234</v>
       </c>
       <c r="W29" t="n">
-        <v>2664.631311146422</v>
+        <v>2664.631311146421</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.865290774501</v>
+        <v>2385.8652907745</v>
       </c>
       <c r="Y29" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456923</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I30" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J30" t="n">
-        <v>157.8594836382963</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="K30" t="n">
-        <v>434.5624507666914</v>
+        <v>154.4744684756468</v>
       </c>
       <c r="L30" t="n">
-        <v>863.8672136975986</v>
+        <v>583.7792314065539</v>
       </c>
       <c r="M30" t="n">
-        <v>1422.982137938881</v>
+        <v>1142.894155647836</v>
       </c>
       <c r="N30" t="n">
-        <v>1535.108840640794</v>
+        <v>1730.202091242672</v>
       </c>
       <c r="O30" t="n">
-        <v>1996.872630224454</v>
+        <v>2191.965880826331</v>
       </c>
       <c r="P30" t="n">
-        <v>2354.799662993118</v>
+        <v>2549.892913594995</v>
       </c>
       <c r="Q30" t="n">
         <v>2549.892913594995</v>
@@ -6616,10 +6616,10 @@
         <v>103.400022961616</v>
       </c>
       <c r="I31" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6591170611762</v>
+        <v>129.6591170611761</v>
       </c>
       <c r="K31" t="n">
         <v>292.9508107464048</v>
@@ -6628,22 +6628,22 @@
         <v>531.2095270480795</v>
       </c>
       <c r="M31" t="n">
-        <v>788.8356752321547</v>
+        <v>788.8356752321546</v>
       </c>
       <c r="N31" t="n">
         <v>1045.977034613511</v>
       </c>
       <c r="O31" t="n">
-        <v>1280.296266092757</v>
+        <v>1280.296266092756</v>
       </c>
       <c r="P31" t="n">
-        <v>1474.119912343314</v>
+        <v>1474.119912343313</v>
       </c>
       <c r="Q31" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.071529484706</v>
+        <v>1523.071529484705</v>
       </c>
       <c r="S31" t="n">
         <v>1416.984372122637</v>
@@ -6683,19 +6683,19 @@
         <v>1256.578652818692</v>
       </c>
       <c r="E32" t="n">
-        <v>965.0570530313848</v>
+        <v>965.0570530313842</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1699824481407</v>
+        <v>654.16998244814</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8876613627824</v>
+        <v>341.887661362782</v>
       </c>
       <c r="H32" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I32" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J32" t="n">
         <v>289.5691431564579</v>
@@ -6719,10 +6719,10 @@
         <v>3197.75542566416</v>
       </c>
       <c r="Q32" t="n">
-        <v>3452.407317645638</v>
+        <v>3452.407317645637</v>
       </c>
       <c r="R32" t="n">
-        <v>3499.107849618452</v>
+        <v>3499.107849618451</v>
       </c>
       <c r="S32" t="n">
         <v>3427.848059106665</v>
@@ -6743,7 +6743,7 @@
         <v>2385.8652907745</v>
       </c>
       <c r="Y32" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456923</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I33" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J33" t="n">
-        <v>157.8594836382963</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="K33" t="n">
-        <v>434.5624507666914</v>
+        <v>346.6851241207641</v>
       </c>
       <c r="L33" t="n">
-        <v>863.8672136975986</v>
+        <v>775.9898870516712</v>
       </c>
       <c r="M33" t="n">
-        <v>1422.982137938881</v>
+        <v>1335.104811292953</v>
       </c>
       <c r="N33" t="n">
-        <v>1535.108840640794</v>
+        <v>1922.412746887789</v>
       </c>
       <c r="O33" t="n">
-        <v>1996.872630224454</v>
+        <v>2384.176536471448</v>
       </c>
       <c r="P33" t="n">
-        <v>2354.799662993118</v>
+        <v>2384.176536471448</v>
       </c>
       <c r="Q33" t="n">
         <v>2549.892913594995</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.8115547448189</v>
+        <v>436.8115547448183</v>
       </c>
       <c r="C34" t="n">
-        <v>370.4597053130847</v>
+        <v>370.4597053130842</v>
       </c>
       <c r="D34" t="n">
-        <v>320.6519322474329</v>
+        <v>320.6519322474325</v>
       </c>
       <c r="E34" t="n">
-        <v>271.9070381153372</v>
+        <v>271.9070381153368</v>
       </c>
       <c r="F34" t="n">
-        <v>222.6905032476998</v>
+        <v>222.6905032476995</v>
       </c>
       <c r="G34" t="n">
-        <v>157.2849703736962</v>
+        <v>157.2849703736961</v>
       </c>
       <c r="H34" t="n">
-        <v>103.4000229616161</v>
+        <v>103.400022961616</v>
       </c>
       <c r="I34" t="n">
-        <v>69.98215699236904</v>
+        <v>69.98215699236903</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6591170611761</v>
+        <v>129.6591170611762</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9508107464047</v>
+        <v>292.9508107464048</v>
       </c>
       <c r="L34" t="n">
-        <v>531.2095270480797</v>
+        <v>531.2095270480796</v>
       </c>
       <c r="M34" t="n">
-        <v>788.8356752321549</v>
+        <v>788.835675232154</v>
       </c>
       <c r="N34" t="n">
-        <v>1045.977034613511</v>
+        <v>1045.97703461351</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.296266092757</v>
+        <v>1280.296266092756</v>
       </c>
       <c r="P34" t="n">
-        <v>1474.119912343314</v>
+        <v>1474.119912343313</v>
       </c>
       <c r="Q34" t="n">
-        <v>1558.083980830827</v>
+        <v>1558.083980830826</v>
       </c>
       <c r="R34" t="n">
-        <v>1523.071529484706</v>
+        <v>1523.071529484705</v>
       </c>
       <c r="S34" t="n">
-        <v>1416.984372122638</v>
+        <v>1416.984372122637</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.138129556117</v>
+        <v>1288.138129556116</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.225651732797</v>
+        <v>1104.225651732796</v>
       </c>
       <c r="V34" t="n">
-        <v>946.7544673978048</v>
+        <v>946.754467397804</v>
       </c>
       <c r="W34" t="n">
-        <v>763.8621860217894</v>
+        <v>763.8621860217886</v>
       </c>
       <c r="X34" t="n">
-        <v>635.8738420237506</v>
+        <v>635.8738420237499</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.1028033226132</v>
+        <v>517.1028033226125</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>1442.99309305265</v>
       </c>
       <c r="C35" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D35" t="n">
-        <v>994.2832301840893</v>
+        <v>994.2832301840895</v>
       </c>
       <c r="E35" t="n">
         <v>752.5214405759006</v>
@@ -6926,58 +6926,58 @@
         <v>491.3941801717751</v>
       </c>
       <c r="G35" t="n">
-        <v>228.871669265536</v>
+        <v>228.8716692655361</v>
       </c>
       <c r="H35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J35" t="n">
-        <v>173.1621085514776</v>
+        <v>173.162108551478</v>
       </c>
       <c r="K35" t="n">
-        <v>482.8129953932216</v>
+        <v>482.8129953932221</v>
       </c>
       <c r="L35" t="n">
-        <v>916.9323086239692</v>
+        <v>916.9323086239697</v>
       </c>
       <c r="M35" t="n">
-        <v>1406.123348790695</v>
+        <v>1406.123348790696</v>
       </c>
       <c r="N35" t="n">
         <v>1881.959183026568</v>
       </c>
       <c r="O35" t="n">
-        <v>2279.03447885812</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P35" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q35" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R35" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S35" t="n">
-        <v>2717.714344859993</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T35" t="n">
         <v>2648.819983663266</v>
       </c>
       <c r="U35" t="n">
-        <v>2547.003181291273</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V35" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W35" t="n">
         <v>2153.536837616225</v>
       </c>
       <c r="X35" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y35" t="n">
         <v>1684.012702284965</v>
@@ -7011,28 +7011,28 @@
         <v>112.895705368682</v>
       </c>
       <c r="I36" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J36" t="n">
-        <v>142.6616131497805</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K36" t="n">
-        <v>419.3645802781756</v>
+        <v>139.2765979871309</v>
       </c>
       <c r="L36" t="n">
-        <v>848.6693432090829</v>
+        <v>568.5813609180379</v>
       </c>
       <c r="M36" t="n">
-        <v>1407.784267450365</v>
+        <v>1127.69628515932</v>
       </c>
       <c r="N36" t="n">
-        <v>1519.910970152278</v>
+        <v>1715.004220754156</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.674759735938</v>
+        <v>2176.768010337815</v>
       </c>
       <c r="P36" t="n">
-        <v>2339.601792504602</v>
+        <v>2534.695043106479</v>
       </c>
       <c r="Q36" t="n">
         <v>2534.695043106479</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.19514857084738</v>
+        <v>91.19514857084772</v>
       </c>
       <c r="C37" t="n">
-        <v>74.60310931823204</v>
+        <v>74.6031093182323</v>
       </c>
       <c r="D37" t="n">
-        <v>74.55514643169913</v>
+        <v>74.5551464316993</v>
       </c>
       <c r="E37" t="n">
-        <v>74.55514643169913</v>
+        <v>74.5551464316993</v>
       </c>
       <c r="F37" t="n">
-        <v>74.55514643169913</v>
+        <v>74.5551464316993</v>
       </c>
       <c r="G37" t="n">
-        <v>58.9094237368145</v>
+        <v>58.90942373681458</v>
       </c>
       <c r="H37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K37" t="n">
         <v>116.8668160726174</v>
       </c>
       <c r="L37" t="n">
-        <v>253.9163682578277</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M37" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N37" t="n">
-        <v>566.2655475903302</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O37" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P37" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q37" t="n">
-        <v>779.3766418777835</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R37" t="n">
-        <v>779.3766418777835</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S37" t="n">
-        <v>723.049294694834</v>
+        <v>723.0492946948349</v>
       </c>
       <c r="T37" t="n">
-        <v>643.9628623074324</v>
+        <v>643.9628623074332</v>
       </c>
       <c r="U37" t="n">
-        <v>509.8101946632308</v>
+        <v>509.8101946632316</v>
       </c>
       <c r="V37" t="n">
-        <v>402.0988205073578</v>
+        <v>402.0988205073585</v>
       </c>
       <c r="W37" t="n">
-        <v>268.9663493104613</v>
+        <v>268.9663493104619</v>
       </c>
       <c r="X37" t="n">
-        <v>190.7378154915414</v>
+        <v>190.7378154915419</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.7265869695228</v>
+        <v>121.7265869695233</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7175,16 @@
         <v>173.1621085514776</v>
       </c>
       <c r="K38" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932216</v>
       </c>
       <c r="L38" t="n">
-        <v>916.9323086239694</v>
+        <v>916.9323086239692</v>
       </c>
       <c r="M38" t="n">
-        <v>1406.123348790696</v>
+        <v>1406.123348790695</v>
       </c>
       <c r="N38" t="n">
-        <v>1881.959183026568</v>
+        <v>1881.959183026567</v>
       </c>
       <c r="O38" t="n">
         <v>2279.03447885812</v>
@@ -7242,7 +7242,7 @@
         <v>338.3826735679201</v>
       </c>
       <c r="G39" t="n">
-        <v>209.9524866548333</v>
+        <v>209.9524866548334</v>
       </c>
       <c r="H39" t="n">
         <v>112.895705368682</v>
@@ -7254,22 +7254,22 @@
         <v>142.6616131497805</v>
       </c>
       <c r="K39" t="n">
-        <v>419.3645802781757</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L39" t="n">
-        <v>848.6693432090829</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M39" t="n">
         <v>1407.784267450365</v>
       </c>
       <c r="N39" t="n">
-        <v>1519.910970152278</v>
+        <v>1519.910970152279</v>
       </c>
       <c r="O39" t="n">
         <v>1981.674759735938</v>
       </c>
       <c r="P39" t="n">
-        <v>2339.601792504602</v>
+        <v>2339.601792504603</v>
       </c>
       <c r="Q39" t="n">
         <v>2534.695043106479</v>
@@ -7336,25 +7336,25 @@
         <v>116.8668160726174</v>
       </c>
       <c r="L40" t="n">
-        <v>253.9163682578277</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M40" t="n">
-        <v>410.3333523254384</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N40" t="n">
-        <v>566.2655475903302</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O40" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R40" t="n">
-        <v>779.3766418777846</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S40" t="n">
         <v>723.0492946948349</v>
@@ -7391,49 +7391,49 @@
         <v>1214.083264671163</v>
       </c>
       <c r="D41" t="n">
-        <v>994.2832301840905</v>
+        <v>994.2832301840906</v>
       </c>
       <c r="E41" t="n">
-        <v>752.5214405759017</v>
+        <v>752.5214405759018</v>
       </c>
       <c r="F41" t="n">
-        <v>491.3941801717764</v>
+        <v>491.3941801717766</v>
       </c>
       <c r="G41" t="n">
         <v>228.871669265536</v>
       </c>
       <c r="H41" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I41" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J41" t="n">
-        <v>173.1621085514778</v>
+        <v>173.1621085514776</v>
       </c>
       <c r="K41" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932216</v>
       </c>
       <c r="L41" t="n">
-        <v>916.9323086239696</v>
+        <v>916.9323086239691</v>
       </c>
       <c r="M41" t="n">
-        <v>1406.123348790696</v>
+        <v>1406.123348790695</v>
       </c>
       <c r="N41" t="n">
-        <v>1881.959183026568</v>
+        <v>1881.959183026567</v>
       </c>
       <c r="O41" t="n">
-        <v>2279.03447885812</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P41" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q41" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R41" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S41" t="n">
         <v>2717.714344859993</v>
@@ -7442,7 +7442,7 @@
         <v>2648.819983663267</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.003181291275</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V41" t="n">
         <v>2363.04783747292</v>
@@ -7451,7 +7451,7 @@
         <v>2153.536837616226</v>
       </c>
       <c r="X41" t="n">
-        <v>1924.530627423424</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y41" t="n">
         <v>1684.012702284966</v>
@@ -7485,28 +7485,28 @@
         <v>112.895705368682</v>
       </c>
       <c r="I42" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J42" t="n">
         <v>142.6616131497805</v>
       </c>
       <c r="K42" t="n">
-        <v>419.3645802781757</v>
+        <v>419.3645802781755</v>
       </c>
       <c r="L42" t="n">
-        <v>848.6693432090829</v>
+        <v>848.6693432090826</v>
       </c>
       <c r="M42" t="n">
         <v>1407.784267450365</v>
       </c>
       <c r="N42" t="n">
-        <v>1519.910970152278</v>
+        <v>1995.0922030452</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.674759735938</v>
+        <v>2456.855992628859</v>
       </c>
       <c r="P42" t="n">
-        <v>2339.601792504602</v>
+        <v>2534.695043106479</v>
       </c>
       <c r="Q42" t="n">
         <v>2534.695043106479</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.8086037802678</v>
+        <v>91.19514857084715</v>
       </c>
       <c r="C43" t="n">
-        <v>87.21656452765242</v>
+        <v>74.60310931823187</v>
       </c>
       <c r="D43" t="n">
-        <v>87.16860164111948</v>
+        <v>74.55514643169901</v>
       </c>
       <c r="E43" t="n">
-        <v>87.16860164111948</v>
+        <v>74.55514643169901</v>
       </c>
       <c r="F43" t="n">
-        <v>74.5551464316992</v>
+        <v>74.55514643169901</v>
       </c>
       <c r="G43" t="n">
-        <v>58.90942373681455</v>
+        <v>58.90942373681444</v>
       </c>
       <c r="H43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J43" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K43" t="n">
         <v>116.8668160726174</v>
       </c>
       <c r="L43" t="n">
-        <v>253.9163682578277</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M43" t="n">
-        <v>410.3333523254384</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N43" t="n">
-        <v>566.2655475903302</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O43" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S43" t="n">
-        <v>735.6627499042545</v>
+        <v>723.0492946948334</v>
       </c>
       <c r="T43" t="n">
-        <v>656.5763175168529</v>
+        <v>643.9628623074318</v>
       </c>
       <c r="U43" t="n">
-        <v>522.4236498726514</v>
+        <v>509.8101946632303</v>
       </c>
       <c r="V43" t="n">
-        <v>414.7122757167783</v>
+        <v>402.0988205073573</v>
       </c>
       <c r="W43" t="n">
-        <v>281.5798045198818</v>
+        <v>268.9663493104609</v>
       </c>
       <c r="X43" t="n">
-        <v>203.3512707009619</v>
+        <v>190.7378154915411</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.3400421789433</v>
+        <v>121.7265869695226</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1442.99309305265</v>
+        <v>1442.993093052649</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.083264671162</v>
+        <v>1214.083264671161</v>
       </c>
       <c r="D44" t="n">
-        <v>994.2832301840899</v>
+        <v>994.283230184089</v>
       </c>
       <c r="E44" t="n">
-        <v>752.5214405759014</v>
+        <v>752.5214405759004</v>
       </c>
       <c r="F44" t="n">
-        <v>491.3941801717765</v>
+        <v>491.3941801717756</v>
       </c>
       <c r="G44" t="n">
         <v>228.871669265536</v>
       </c>
       <c r="H44" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I44" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J44" t="n">
         <v>173.1621085514776</v>
       </c>
       <c r="K44" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932216</v>
       </c>
       <c r="L44" t="n">
-        <v>916.9323086239698</v>
+        <v>916.9323086239692</v>
       </c>
       <c r="M44" t="n">
-        <v>1406.123348790696</v>
+        <v>1406.123348790695</v>
       </c>
       <c r="N44" t="n">
-        <v>1881.959183026568</v>
+        <v>1881.959183026567</v>
       </c>
       <c r="O44" t="n">
-        <v>2279.03447885812</v>
+        <v>2279.034478858119</v>
       </c>
       <c r="P44" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327647</v>
       </c>
       <c r="Q44" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="R44" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.21432519266</v>
       </c>
       <c r="S44" t="n">
-        <v>2717.714344859993</v>
+        <v>2717.714344859992</v>
       </c>
       <c r="T44" t="n">
-        <v>2648.819983663267</v>
+        <v>2648.819983663266</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.003181291275</v>
+        <v>2547.003181291274</v>
       </c>
       <c r="V44" t="n">
-        <v>2363.04783747292</v>
+        <v>2363.047837472919</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.536837616225</v>
+        <v>2153.536837616224</v>
       </c>
       <c r="X44" t="n">
-        <v>1924.530627423423</v>
+        <v>1924.530627423422</v>
       </c>
       <c r="Y44" t="n">
-        <v>1684.012702284965</v>
+        <v>1684.012702284964</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>112.895705368682</v>
       </c>
       <c r="I45" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J45" t="n">
-        <v>142.6616131497805</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K45" t="n">
-        <v>419.3645802781757</v>
+        <v>139.2765979871309</v>
       </c>
       <c r="L45" t="n">
-        <v>848.6693432090829</v>
+        <v>568.5813609180379</v>
       </c>
       <c r="M45" t="n">
-        <v>1407.784267450365</v>
+        <v>1127.69628515932</v>
       </c>
       <c r="N45" t="n">
-        <v>1519.910970152278</v>
+        <v>1715.004220754156</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.674759735938</v>
+        <v>2176.768010337815</v>
       </c>
       <c r="P45" t="n">
-        <v>2339.601792504602</v>
+        <v>2534.695043106479</v>
       </c>
       <c r="Q45" t="n">
         <v>2534.695043106479</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.8086037802678</v>
+        <v>103.8086037802673</v>
       </c>
       <c r="C46" t="n">
-        <v>87.21656452765242</v>
+        <v>87.21656452765197</v>
       </c>
       <c r="D46" t="n">
-        <v>87.16860164111948</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="E46" t="n">
-        <v>87.16860164111948</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="F46" t="n">
-        <v>74.5551464316992</v>
+        <v>87.16860164111903</v>
       </c>
       <c r="G46" t="n">
-        <v>58.90942373681455</v>
+        <v>71.52287894623437</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="I46" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="J46" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385321</v>
       </c>
       <c r="K46" t="n">
         <v>116.8668160726174</v>
       </c>
       <c r="L46" t="n">
-        <v>253.9163682578277</v>
+        <v>253.9163682578276</v>
       </c>
       <c r="M46" t="n">
-        <v>410.3333523254384</v>
+        <v>410.3333523254382</v>
       </c>
       <c r="N46" t="n">
-        <v>566.2655475903302</v>
+        <v>566.26554759033</v>
       </c>
       <c r="O46" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531112</v>
       </c>
       <c r="P46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="R46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872037</v>
       </c>
       <c r="S46" t="n">
-        <v>735.6627499042545</v>
+        <v>735.6627499042542</v>
       </c>
       <c r="T46" t="n">
-        <v>656.5763175168529</v>
+        <v>656.5763175168524</v>
       </c>
       <c r="U46" t="n">
-        <v>522.4236498726514</v>
+        <v>522.4236498726509</v>
       </c>
       <c r="V46" t="n">
-        <v>414.7122757167783</v>
+        <v>414.7122757167779</v>
       </c>
       <c r="W46" t="n">
-        <v>281.5798045198818</v>
+        <v>281.5798045198813</v>
       </c>
       <c r="X46" t="n">
-        <v>203.3512707009619</v>
+        <v>203.3512707009614</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.3400421789433</v>
+        <v>134.3400421789428</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>156.4739680163848</v>
+        <v>100.2520420998329</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8696,19 +8696,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>90.23522973590846</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>366.9652709548906</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>108.5028474213841</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0168334487717</v>
+        <v>121.0168334487718</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.15336953250394</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>435.1847673541545</v>
+        <v>149.355901447282</v>
       </c>
       <c r="M12" t="n">
-        <v>545.52090947991</v>
+        <v>545.5209094799101</v>
       </c>
       <c r="N12" t="n">
-        <v>29.90474766193714</v>
+        <v>29.90474766193726</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.03658455975844</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>117.3489104259941</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8942,7 +8942,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>114.2981947064075</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.15336953250393</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201375</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>116.745523462709</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>401.8923759108115</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,7 +9164,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>117.3489104259941</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9179,10 +9179,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>418.3383206229274</v>
+        <v>269.2908491155118</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>121.0168334487717</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>151.2448598588821</v>
+        <v>145.0886569591439</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>40.65403313633085</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>52.45914188983311</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>280.3274676241623</v>
+        <v>280.3274676241625</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>116.7455234627098</v>
       </c>
       <c r="N21" t="n">
-        <v>45.70905082430107</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9641,10 +9641,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>238.9194529990656</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>280.3274676241634</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201375</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9726,16 +9726,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>45.70905082430107</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>401.8923759108124</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>143.1640433204356</v>
+        <v>143.1640433204366</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>149.6526306970418</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>143.1640433204356</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>143.1640433204356</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>52.45914188983311</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>243.4268644825336</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>149.6526306970417</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>143.1640433204351</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10835,13 +10835,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>495.04023564157</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578764</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>143.1640433204351</v>
+        <v>143.1640433204366</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>143.1640433204351</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>131.0844454025804</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11300,7 +11300,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155858</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250397</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>149.6526306970417</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>143.1640433204351</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>76.03658455975848</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.8716252173193</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.8829421750011</v>
+        <v>275.882942175001</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>266.864246219529</v>
       </c>
       <c r="E11" t="n">
-        <v>288.0359345477247</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.7781998774117</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>117.9150348777424</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>275.978360168202</v>
+        <v>275.9783601682019</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.8716252173194</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8829421750011</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>288.6063837894346</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.6087210113936</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.54719260666907</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.4676296620864</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0608464255999</v>
+        <v>150.0608464255998</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.3780024574984</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>244.1760326454355</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.81662720132839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95734.57893841305</v>
+        <v>95734.57893841306</v>
       </c>
       <c r="C2" t="n">
-        <v>95734.57893841305</v>
+        <v>95734.57893841303</v>
       </c>
       <c r="D2" t="n">
-        <v>95734.57893841303</v>
+        <v>95734.57893841308</v>
       </c>
       <c r="E2" t="n">
-        <v>81669.31429501549</v>
+        <v>81669.3142950154</v>
       </c>
       <c r="F2" t="n">
         <v>85652.38523492635</v>
       </c>
       <c r="G2" t="n">
+        <v>95953.00756177286</v>
+      </c>
+      <c r="H2" t="n">
         <v>95953.00756177273</v>
       </c>
-      <c r="H2" t="n">
-        <v>95953.00756177271</v>
-      </c>
       <c r="I2" t="n">
-        <v>95953.00756177274</v>
+        <v>95953.00756177273</v>
       </c>
       <c r="J2" t="n">
+        <v>95953.00756177276</v>
+      </c>
+      <c r="K2" t="n">
+        <v>95953.00756177283</v>
+      </c>
+      <c r="L2" t="n">
         <v>95953.00756177279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>95953.0075617728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95953.00756177281</v>
       </c>
       <c r="M2" t="n">
         <v>95953.0075617728</v>
       </c>
       <c r="N2" t="n">
-        <v>95953.00756177283</v>
+        <v>95953.00756177281</v>
       </c>
       <c r="O2" t="n">
-        <v>95953.0075617728</v>
+        <v>95953.00756177276</v>
       </c>
       <c r="P2" t="n">
         <v>95953.00756177281</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342836.575945662</v>
+        <v>342836.5759456619</v>
       </c>
       <c r="F3" t="n">
-        <v>29555.46087811023</v>
+        <v>29555.46087811027</v>
       </c>
       <c r="G3" t="n">
-        <v>56437.75408533535</v>
+        <v>56437.75408533531</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95143.32741586951</v>
+        <v>95143.32741586959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56437.75408533531</v>
+        <v>56437.75408533533</v>
       </c>
       <c r="M3" t="n">
-        <v>117882.4882489362</v>
+        <v>117882.4882489361</v>
       </c>
       <c r="N3" t="n">
-        <v>25264.47989534249</v>
+        <v>25264.47989534259</v>
       </c>
       <c r="O3" t="n">
-        <v>25347.42903908046</v>
+        <v>25347.42903908058</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,34 +26427,34 @@
         <v>265672.9839936035</v>
       </c>
       <c r="F4" t="n">
-        <v>275991.7514658778</v>
+        <v>275991.7514658779</v>
       </c>
       <c r="G4" t="n">
         <v>322791.7341880638</v>
       </c>
       <c r="H4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880638</v>
       </c>
       <c r="I4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880638</v>
       </c>
       <c r="J4" t="n">
-        <v>319321.5699076307</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="K4" t="n">
         <v>319321.5699076307</v>
       </c>
       <c r="L4" t="n">
-        <v>319321.5699076307</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="M4" t="n">
         <v>318317.5955738486</v>
       </c>
       <c r="N4" t="n">
-        <v>318317.5955738486</v>
+        <v>318317.5955738487</v>
       </c>
       <c r="O4" t="n">
-        <v>318317.5955738486</v>
+        <v>318317.5955738487</v>
       </c>
       <c r="P4" t="n">
         <v>318317.5955738486</v>
@@ -26479,37 +26479,37 @@
         <v>42283.5990588101</v>
       </c>
       <c r="F5" t="n">
-        <v>48555.18356209812</v>
+        <v>48555.18356209813</v>
       </c>
       <c r="G5" t="n">
         <v>54486.01549734819</v>
       </c>
       <c r="H5" t="n">
-        <v>54486.01549734819</v>
+        <v>54486.01549734818</v>
       </c>
       <c r="I5" t="n">
-        <v>54486.01549734819</v>
+        <v>54486.0154973482</v>
       </c>
       <c r="J5" t="n">
+        <v>64774.13229132096</v>
+      </c>
+      <c r="K5" t="n">
         <v>64774.13229132094</v>
       </c>
-      <c r="K5" t="n">
-        <v>64774.13229132096</v>
-      </c>
       <c r="L5" t="n">
-        <v>64774.13229132095</v>
+        <v>64774.13229132094</v>
       </c>
       <c r="M5" t="n">
-        <v>57365.1756271778</v>
+        <v>57365.17562717778</v>
       </c>
       <c r="N5" t="n">
         <v>57365.1756271778</v>
       </c>
       <c r="O5" t="n">
-        <v>57365.17562717781</v>
+        <v>57365.17562717779</v>
       </c>
       <c r="P5" t="n">
-        <v>57365.17562717781</v>
+        <v>57365.17562717778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344037.6764864863</v>
+        <v>-344042.0450589535</v>
       </c>
       <c r="C6" t="n">
-        <v>-344037.6764864863</v>
+        <v>-344042.0450589535</v>
       </c>
       <c r="D6" t="n">
-        <v>-344037.6764864863</v>
+        <v>-344042.0450589535</v>
       </c>
       <c r="E6" t="n">
-        <v>-569123.8447030602</v>
+        <v>-569409.5185683953</v>
       </c>
       <c r="F6" t="n">
-        <v>-268450.0106711598</v>
+        <v>-268656.0231176969</v>
       </c>
       <c r="G6" t="n">
-        <v>-337762.4962089746</v>
+        <v>-337762.4962089745</v>
       </c>
       <c r="H6" t="n">
         <v>-281324.7421236392</v>
       </c>
       <c r="I6" t="n">
-        <v>-281324.7421236392</v>
+        <v>-281324.7421236393</v>
       </c>
       <c r="J6" t="n">
-        <v>-383286.0220530484</v>
+        <v>-383286.0220530486</v>
       </c>
       <c r="K6" t="n">
         <v>-288142.6946371789</v>
       </c>
       <c r="L6" t="n">
-        <v>-344580.4487225141</v>
+        <v>-344580.4487225143</v>
       </c>
       <c r="M6" t="n">
-        <v>-397612.2518881899</v>
+        <v>-397612.2518881896</v>
       </c>
       <c r="N6" t="n">
-        <v>-304994.2435345961</v>
+        <v>-304994.2435345963</v>
       </c>
       <c r="O6" t="n">
-        <v>-305077.1926783341</v>
+        <v>-305077.1926783343</v>
       </c>
       <c r="P6" t="n">
         <v>-279729.7636392536</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G2" t="n">
         <v>172.7786715121888</v>
@@ -26707,22 +26707,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="J2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K2" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="L2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M2" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="N2" t="n">
         <v>151.4936909828472</v>
       </c>
       <c r="O2" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="P2" t="n">
         <v>151.4936909828473</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="F3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="H3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="I3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="J3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="K3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="L3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="M3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="O3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
       <c r="P3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069889</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435792</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="F4" t="n">
-        <v>608.0179372529217</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="G4" t="n">
-        <v>608.0179372529217</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="H4" t="n">
-        <v>608.0179372529217</v>
+        <v>608.0179372529216</v>
       </c>
       <c r="I4" t="n">
-        <v>608.0179372529217</v>
+        <v>608.0179372529218</v>
       </c>
       <c r="J4" t="n">
+        <v>874.7769624046131</v>
+      </c>
+      <c r="K4" t="n">
         <v>874.7769624046128</v>
       </c>
-      <c r="K4" t="n">
-        <v>874.776962404613</v>
-      </c>
       <c r="L4" t="n">
-        <v>874.776962404613</v>
+        <v>874.7769624046128</v>
       </c>
       <c r="M4" t="n">
-        <v>684.8035812981652</v>
+        <v>684.8035812981651</v>
       </c>
       <c r="N4" t="n">
         <v>684.8035812981653</v>
       </c>
       <c r="O4" t="n">
-        <v>684.8035812981653</v>
+        <v>684.8035812981651</v>
       </c>
       <c r="P4" t="n">
-        <v>684.8035812981653</v>
+        <v>684.8035812981651</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.54719260666919</v>
+        <v>70.54719260666913</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68428629885052</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666914</v>
+        <v>70.54719260666917</v>
       </c>
       <c r="M2" t="n">
-        <v>49.26221207732767</v>
+        <v>49.26221207732748</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885058</v>
+        <v>31.68428629885072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435792</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="F4" t="n">
         <v>103.1510609093425</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>266.7590251516912</v>
+        <v>266.7590251516913</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>314.8934952371314</v>
+        <v>314.8934952371313</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093426</v>
+        <v>103.1510609093427</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666919</v>
+        <v>70.54719260666913</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885052</v>
+        <v>31.68428629885058</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.8668763435792</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="N4" t="n">
         <v>103.1510609093425</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752573</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H12" t="n">
         <v>96.08621347328979</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.51332045640932</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>93.04362513258937</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="N13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="15">
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>95.51563814546148</v>
+        <v>95.51563814546193</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="N16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="17">
@@ -28609,10 +28609,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S17" t="n">
-        <v>172.7786715121888</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="T17" t="n">
         <v>172.7786715121888</v>
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>37.98533346928095</v>
+        <v>95.51563814546192</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>57.53030467618051</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J19" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S19" t="n">
-        <v>108.2778474260785</v>
+        <v>172.7786715121888</v>
       </c>
       <c r="T19" t="n">
         <v>172.7786715121888</v>
@@ -28785,10 +28785,10 @@
         <v>172.7786715121888</v>
       </c>
       <c r="X19" t="n">
-        <v>172.7786715121888</v>
+        <v>144.162713200088</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.7786715121888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S20" t="n">
         <v>172.7786715121887</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>95.51563814546147</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.85006423600239</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>54.66557390945951</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28965,10 +28965,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>82.63085418239336</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9829564507831</v>
@@ -28980,7 +28980,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J22" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R22" t="n">
         <v>136.8938057381792</v>
@@ -29013,7 +29013,7 @@
         <v>172.7786715121887</v>
       </c>
       <c r="U22" t="n">
-        <v>126.7434246859956</v>
+        <v>172.7786715121887</v>
       </c>
       <c r="V22" t="n">
         <v>172.7786715121887</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S23" t="n">
         <v>172.7786715121887</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>54.66557390945901</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.53030467618052</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.85006423600236</v>
+        <v>37.98533346928032</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J25" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.4192885140925</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.56881149609181</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S25" t="n">
         <v>172.7786715121887</v>
@@ -29259,10 +29259,10 @@
         <v>172.7786715121887</v>
       </c>
       <c r="X25" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.7786715121887</v>
+        <v>144.1627132000884</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L26" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="N26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.65670430876156</v>
+        <v>91.65670430876258</v>
       </c>
       <c r="R26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055199</v>
       </c>
       <c r="O28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="29">
@@ -29536,13 +29536,13 @@
         <v>102.2314789055197</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876219</v>
       </c>
       <c r="L29" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="M29" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>102.2314789055197</v>
@@ -29551,13 +29551,13 @@
         <v>102.2314789055197</v>
       </c>
       <c r="P29" t="n">
-        <v>36.5974799212363</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q29" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="R29" t="n">
-        <v>55.05922438752567</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S29" t="n">
         <v>102.2314789055197</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>91.65670430876185</v>
+        <v>91.65670430876202</v>
       </c>
       <c r="N32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="C34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="D34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="E34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="F34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2314789055199</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055189</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="P34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="R34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="T34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="U34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="V34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="W34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="X34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="F35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="G35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I35" t="n">
         <v>149.8092072208349</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="36">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I37" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J37" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.931967856766184</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R37" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S37" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255223</v>
       </c>
       <c r="T37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S38" t="n">
         <v>151.4936909828472</v>
@@ -30402,7 +30402,7 @@
         <v>135.3151662150742</v>
       </c>
       <c r="J40" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R40" t="n">
-        <v>124.4064850808539</v>
+        <v>136.8938057381792</v>
       </c>
       <c r="S40" t="n">
-        <v>151.4936909828472</v>
+        <v>139.0063703255223</v>
       </c>
       <c r="T40" t="n">
         <v>151.4936909828472</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="C41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="D41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="E41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="F41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="G41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="H41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="I41" t="n">
         <v>149.8092072208349</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="T41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="U41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="V41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="W41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="X41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="C43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="D43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>138.4685277671546</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="I43" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J43" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R43" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S43" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255208</v>
       </c>
       <c r="T43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="U43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="V43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="W43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="X43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828474</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752572</v>
       </c>
       <c r="S44" t="n">
         <v>151.4936909828473</v>
@@ -30864,19 +30864,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>138.4685277671546</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>151.4936909828473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255216</v>
       </c>
       <c r="I46" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J46" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025994</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409253</v>
       </c>
       <c r="R46" t="n">
         <v>136.8938057381792</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H11" t="n">
-        <v>5.652861741750557</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I11" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J11" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K11" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L11" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M11" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N11" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O11" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P11" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R11" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S11" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T11" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H12" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I12" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J12" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L12" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M12" t="n">
-        <v>74.82986942530903</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N12" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O12" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P12" t="n">
-        <v>56.39506413431029</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.69860688513405</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R12" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S12" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T12" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H13" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I13" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J13" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K13" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L13" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M13" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N13" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O13" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P13" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R13" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S13" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H14" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J14" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K14" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L14" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M14" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N14" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O14" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P14" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R14" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S14" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T14" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H15" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I15" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J15" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L15" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M15" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N15" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O15" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P15" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R15" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S15" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T15" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H16" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I16" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J16" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K16" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L16" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M16" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N16" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O16" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P16" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R16" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S16" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H17" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I17" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J17" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K17" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L17" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M17" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N17" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O17" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P17" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q17" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R17" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S17" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T17" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H18" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I18" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J18" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L18" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M18" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N18" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O18" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P18" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R18" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S18" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T18" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H19" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I19" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J19" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K19" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L19" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M19" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N19" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O19" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P19" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R19" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S19" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H20" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I20" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J20" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K20" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L20" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M20" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N20" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O20" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P20" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q20" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R20" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S20" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T20" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H21" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I21" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J21" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K21" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L21" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M21" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N21" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O21" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P21" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R21" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S21" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T21" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H22" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I22" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J22" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K22" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L22" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M22" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N22" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O22" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P22" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R22" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S22" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T22" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H23" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I23" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J23" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K23" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L23" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M23" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N23" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O23" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P23" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R23" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S23" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T23" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H24" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I24" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J24" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K24" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L24" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M24" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N24" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O24" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P24" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R24" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S24" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T24" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H25" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I25" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J25" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K25" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L25" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M25" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N25" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O25" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P25" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R25" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S25" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H26" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I26" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J26" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K26" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L26" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M26" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N26" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O26" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P26" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R26" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S26" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T26" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H27" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I27" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J27" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K27" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L27" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M27" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N27" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O27" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P27" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q27" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R27" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S27" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T27" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H28" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I28" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J28" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K28" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L28" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M28" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N28" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O28" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P28" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R28" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S28" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H29" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I29" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J29" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K29" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L29" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M29" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N29" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O29" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P29" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R29" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S29" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T29" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H30" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I30" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J30" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K30" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M30" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N30" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O30" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P30" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R30" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S30" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T30" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H31" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I31" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J31" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K31" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L31" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M31" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N31" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O31" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P31" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R31" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S31" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H32" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I32" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J32" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K32" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L32" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M32" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N32" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O32" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P32" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R32" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S32" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T32" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H33" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I33" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J33" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K33" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M33" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N33" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O33" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P33" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R33" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S33" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T33" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H34" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I34" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J34" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K34" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L34" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M34" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N34" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O34" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P34" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R34" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S34" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H35" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I35" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J35" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K35" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L35" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M35" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N35" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O35" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P35" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R35" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S35" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T35" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H36" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I36" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J36" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K36" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M36" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N36" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O36" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P36" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R36" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S36" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T36" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H37" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J37" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K37" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L37" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M37" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N37" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O37" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P37" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R37" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S37" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H38" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I38" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J38" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K38" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L38" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M38" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N38" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O38" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P38" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R38" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S38" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T38" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H39" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I39" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J39" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K39" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M39" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N39" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O39" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P39" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R39" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S39" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T39" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H40" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I40" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J40" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K40" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L40" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M40" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N40" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P40" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R40" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S40" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T40" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H41" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I41" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L41" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M41" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N41" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O41" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P41" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R41" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S41" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T41" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H42" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I42" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J42" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K42" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L42" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M42" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N42" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P42" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R42" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S42" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T42" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H43" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I43" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J43" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K43" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L43" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M43" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N43" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O43" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P43" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R43" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S43" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T43" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5519699003296039</v>
+        <v>0.5519699003296031</v>
       </c>
       <c r="H44" t="n">
-        <v>5.652861741750558</v>
+        <v>5.65286174175055</v>
       </c>
       <c r="I44" t="n">
-        <v>21.27981958245708</v>
+        <v>21.27981958245705</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84775532809977</v>
+        <v>46.8477553280997</v>
       </c>
       <c r="K44" t="n">
-        <v>70.21264120905192</v>
+        <v>70.21264120905181</v>
       </c>
       <c r="L44" t="n">
-        <v>87.10499004626405</v>
+        <v>87.10499004626392</v>
       </c>
       <c r="M44" t="n">
-        <v>96.92108476125064</v>
+        <v>96.9210847612505</v>
       </c>
       <c r="N44" t="n">
-        <v>98.48936924056214</v>
+        <v>98.489369240562</v>
       </c>
       <c r="O44" t="n">
-        <v>93.00071854415964</v>
+        <v>93.0007185441595</v>
       </c>
       <c r="P44" t="n">
-        <v>79.37396162977252</v>
+        <v>79.37396162977241</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.60653957421856</v>
+        <v>59.60653957421847</v>
       </c>
       <c r="R44" t="n">
-        <v>34.67267925157952</v>
+        <v>34.67267925157947</v>
       </c>
       <c r="S44" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T44" t="n">
-        <v>2.416248238692843</v>
+        <v>2.416248238692839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04415759202636831</v>
+        <v>0.04415759202636824</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923912</v>
       </c>
       <c r="H45" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479147</v>
       </c>
       <c r="I45" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J45" t="n">
-        <v>27.90220213416276</v>
+        <v>27.90220213416272</v>
       </c>
       <c r="K45" t="n">
-        <v>47.689307644653</v>
+        <v>47.68930764465293</v>
       </c>
       <c r="L45" t="n">
-        <v>64.12415935433486</v>
+        <v>64.12415935433478</v>
       </c>
       <c r="M45" t="n">
-        <v>74.82986942530904</v>
+        <v>74.82986942530894</v>
       </c>
       <c r="N45" t="n">
-        <v>76.81039340577119</v>
+        <v>76.81039340577108</v>
       </c>
       <c r="O45" t="n">
-        <v>70.26650383788714</v>
+        <v>70.26650383788704</v>
       </c>
       <c r="P45" t="n">
-        <v>56.3950641343103</v>
+        <v>56.39506413431022</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.69860688513407</v>
+        <v>37.69860688513401</v>
       </c>
       <c r="R45" t="n">
-        <v>18.33636198000131</v>
+        <v>18.33636198000128</v>
       </c>
       <c r="S45" t="n">
-        <v>5.485623974661306</v>
+        <v>5.485623974661298</v>
       </c>
       <c r="T45" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01942960085476262</v>
+        <v>0.01942960085476259</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453898</v>
       </c>
       <c r="H46" t="n">
-        <v>2.201341925039925</v>
+        <v>2.201341925039922</v>
       </c>
       <c r="I46" t="n">
-        <v>7.445847738274098</v>
+        <v>7.445847738274088</v>
       </c>
       <c r="J46" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970906</v>
       </c>
       <c r="K46" t="n">
-        <v>28.76600184254623</v>
+        <v>28.76600184254619</v>
       </c>
       <c r="L46" t="n">
-        <v>36.81057857065737</v>
+        <v>36.81057857065732</v>
       </c>
       <c r="M46" t="n">
-        <v>38.81159387879693</v>
+        <v>38.81159387879687</v>
       </c>
       <c r="N46" t="n">
-        <v>37.88874092453686</v>
+        <v>37.88874092453681</v>
       </c>
       <c r="O46" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423383</v>
       </c>
       <c r="P46" t="n">
-        <v>29.9454529353079</v>
+        <v>29.94545293530786</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875532</v>
       </c>
       <c r="R46" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S46" t="n">
-        <v>4.314900276381934</v>
+        <v>4.314900276381928</v>
       </c>
       <c r="T46" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103029</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.2219259165519</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775192</v>
       </c>
       <c r="L11" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N11" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O11" t="n">
-        <v>401.086157405608</v>
+        <v>273.0111927189296</v>
       </c>
       <c r="P11" t="n">
-        <v>309.8354732015434</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.7649764100275</v>
       </c>
       <c r="K12" t="n">
-        <v>279.4979465943385</v>
+        <v>279.4979465943384</v>
       </c>
       <c r="L12" t="n">
-        <v>386.7334931373416</v>
+        <v>100.9046272304689</v>
       </c>
       <c r="M12" t="n">
-        <v>504.8668763435792</v>
+        <v>504.8668763435791</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865242</v>
       </c>
       <c r="P12" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>197.0638894968453</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>164.9411047325542</v>
       </c>
       <c r="L13" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M13" t="n">
         <v>260.2284325091667</v>
       </c>
       <c r="N13" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O13" t="n">
         <v>236.6860924032784</v>
@@ -35586,7 +35586,7 @@
         <v>195.7814608591485</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.81219039142714</v>
+        <v>84.81219039142712</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K14" t="n">
-        <v>8.738547660999357</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L14" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M14" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N14" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O14" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P14" t="n">
-        <v>309.8354732015434</v>
+        <v>5.795347285023429</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>279.4979465943385</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M15" t="n">
-        <v>76.09149032637818</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N15" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O15" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P15" t="n">
-        <v>361.5424573420853</v>
+        <v>349.4332340209784</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.27975764525966</v>
+        <v>60.27975764525972</v>
       </c>
       <c r="K16" t="n">
-        <v>164.9411047325541</v>
+        <v>164.9411047325542</v>
       </c>
       <c r="L16" t="n">
-        <v>240.6653700016916</v>
+        <v>240.6653700016917</v>
       </c>
       <c r="M16" t="n">
-        <v>260.2284325091667</v>
+        <v>260.2284325091668</v>
       </c>
       <c r="N16" t="n">
         <v>259.7387468498548</v>
       </c>
       <c r="O16" t="n">
-        <v>236.6860924032784</v>
+        <v>236.6860924032785</v>
       </c>
       <c r="P16" t="n">
         <v>195.7814608591485</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.81219039142708</v>
+        <v>84.81219039142714</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K17" t="n">
-        <v>8.738547660999357</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L17" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M17" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N17" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O17" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P17" t="n">
-        <v>309.8354732015434</v>
+        <v>160.7880016941277</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.9926544091044</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.09149032637812</v>
+        <v>69.93528742663997</v>
       </c>
       <c r="K18" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L18" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N18" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O18" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P18" t="n">
-        <v>361.5424573420853</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L19" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M19" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N19" t="n">
         <v>157.5072679443352</v>
@@ -36057,7 +36057,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P19" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K20" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L20" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M20" t="n">
-        <v>190.0922378882538</v>
+        <v>190.0922378882539</v>
       </c>
       <c r="N20" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O20" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P20" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L21" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M21" t="n">
-        <v>564.7625497386691</v>
+        <v>76.09149032637887</v>
       </c>
       <c r="N21" t="n">
-        <v>15.80430316236394</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O21" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P21" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.0638894968454</v>
+        <v>197.0638894968453</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L22" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M22" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N22" t="n">
         <v>157.5072679443352</v>
@@ -36294,7 +36294,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P22" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K23" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L23" t="n">
-        <v>134.464230882215</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M23" t="n">
-        <v>494.1323638047738</v>
+        <v>190.0922378882549</v>
       </c>
       <c r="N23" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O23" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P23" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>279.4979465943385</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M24" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N24" t="n">
-        <v>15.80430316236394</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O24" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P24" t="n">
-        <v>361.5424573420853</v>
+        <v>349.4332340209793</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L25" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M25" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N25" t="n">
         <v>157.5072679443352</v>
@@ -36531,7 +36531,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P25" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.8050365293827</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K26" t="n">
-        <v>415.010152483039</v>
+        <v>415.0101524830389</v>
       </c>
       <c r="L26" t="n">
-        <v>540.7358357042547</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M26" t="n">
         <v>596.3638427102934</v>
       </c>
       <c r="N26" t="n">
-        <v>582.873735709431</v>
+        <v>582.8737357094309</v>
       </c>
       <c r="O26" t="n">
-        <v>503.3176363111277</v>
+        <v>503.3176363111276</v>
       </c>
       <c r="P26" t="n">
-        <v>309.8354732015434</v>
+        <v>412.0669521070629</v>
       </c>
       <c r="Q26" t="n">
-        <v>246.649358717866</v>
+        <v>246.6493587178669</v>
       </c>
       <c r="R26" t="n">
-        <v>47.17225451799396</v>
+        <v>47.17225451799393</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K27" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L27" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M27" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N27" t="n">
-        <v>113.2592956584985</v>
+        <v>113.2592956584994</v>
       </c>
       <c r="O27" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P27" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.0638894968454</v>
+        <v>197.0638894968453</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>164.9411047325542</v>
       </c>
       <c r="L28" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M28" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N28" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498551</v>
       </c>
       <c r="O28" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P28" t="n">
         <v>195.7814608591485</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8050365293827</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K29" t="n">
-        <v>415.010152483039</v>
+        <v>404.4353778862815</v>
       </c>
       <c r="L29" t="n">
-        <v>540.7358357042547</v>
+        <v>540.7358357042544</v>
       </c>
       <c r="M29" t="n">
-        <v>596.3638427102935</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N29" t="n">
-        <v>582.873735709431</v>
+        <v>582.8737357094309</v>
       </c>
       <c r="O29" t="n">
-        <v>503.3176363111278</v>
+        <v>503.3176363111276</v>
       </c>
       <c r="P29" t="n">
-        <v>346.4329531227797</v>
+        <v>412.0669521070629</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.2241333146241</v>
+        <v>257.224133314624</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>47.17225451799393</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>279.4979465943385</v>
+        <v>85.34576917502805</v>
       </c>
       <c r="L30" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M30" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N30" t="n">
-        <v>113.2592956584985</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O30" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P30" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.27975764525974</v>
+        <v>60.27975764525971</v>
       </c>
       <c r="K31" t="n">
         <v>164.9411047325542</v>
       </c>
       <c r="L31" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M31" t="n">
-        <v>260.2284325091669</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N31" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O31" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P31" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.81219039142715</v>
+        <v>84.81219039142712</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>415.010152483039</v>
       </c>
       <c r="L32" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M32" t="n">
         <v>585.7890681135357</v>
       </c>
       <c r="N32" t="n">
-        <v>582.873735709431</v>
+        <v>582.8737357094309</v>
       </c>
       <c r="O32" t="n">
-        <v>503.3176363111277</v>
+        <v>503.3176363111276</v>
       </c>
       <c r="P32" t="n">
-        <v>412.0669521070631</v>
+        <v>412.066952107063</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.2241333146241</v>
+        <v>257.224133314624</v>
       </c>
       <c r="R32" t="n">
-        <v>47.17225451799394</v>
+        <v>47.17225451799398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L33" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M33" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N33" t="n">
-        <v>113.2592956584985</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O33" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P33" t="n">
-        <v>361.5424573420853</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.0638894968454</v>
+        <v>167.3902799227751</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.27975764525969</v>
+        <v>60.27975764525975</v>
       </c>
       <c r="K34" t="n">
         <v>164.9411047325542</v>
       </c>
       <c r="L34" t="n">
-        <v>240.6653700016919</v>
+        <v>240.6653700016917</v>
       </c>
       <c r="M34" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091661</v>
       </c>
       <c r="N34" t="n">
-        <v>259.7387468498548</v>
+        <v>259.7387468498549</v>
       </c>
       <c r="O34" t="n">
         <v>236.6860924032785</v>
       </c>
       <c r="P34" t="n">
-        <v>195.7814608591485</v>
+        <v>195.7814608591486</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.81219039142711</v>
+        <v>84.81219039142717</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K35" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L35" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M35" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N35" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O35" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P35" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>279.4979465943385</v>
+        <v>85.34576917502793</v>
       </c>
       <c r="L36" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M36" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N36" t="n">
-        <v>113.259295658498</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O36" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P36" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L37" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M37" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N37" t="n">
         <v>157.5072679443352</v>
@@ -37479,7 +37479,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P37" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K38" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L38" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N38" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O38" t="n">
-        <v>401.0861574056081</v>
+        <v>401.086157405609</v>
       </c>
       <c r="P38" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.9926544091047</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K39" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L39" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M39" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N39" t="n">
-        <v>113.259295658498</v>
+        <v>113.2592956584994</v>
       </c>
       <c r="O39" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P39" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.0638894968454</v>
+        <v>197.0638894968453</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L40" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M40" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N40" t="n">
         <v>157.5072679443352</v>
@@ -37716,7 +37716,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P40" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L41" t="n">
-        <v>438.504356798735</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M41" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N41" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O41" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P41" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.76497641002756</v>
+        <v>88.76497641002751</v>
       </c>
       <c r="K42" t="n">
         <v>279.4979465943385</v>
       </c>
       <c r="L42" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M42" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N42" t="n">
-        <v>113.259295658498</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O42" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P42" t="n">
-        <v>361.5424573420853</v>
+        <v>78.62530351274729</v>
       </c>
       <c r="Q42" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L43" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M43" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N43" t="n">
         <v>157.5072679443352</v>
@@ -37953,7 +37953,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P43" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.5735576238631</v>
+        <v>119.573557623863</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7786735775194</v>
+        <v>312.7786735775193</v>
       </c>
       <c r="L44" t="n">
-        <v>438.5043567987353</v>
+        <v>438.5043567987349</v>
       </c>
       <c r="M44" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047737</v>
       </c>
       <c r="N44" t="n">
-        <v>480.6422568039114</v>
+        <v>480.6422568039112</v>
       </c>
       <c r="O44" t="n">
-        <v>401.0861574056081</v>
+        <v>401.0861574056079</v>
       </c>
       <c r="P44" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015433</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091043</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>279.4979465943385</v>
+        <v>85.34576917502793</v>
       </c>
       <c r="L45" t="n">
-        <v>433.641174677684</v>
+        <v>433.6411746776839</v>
       </c>
       <c r="M45" t="n">
-        <v>564.7625497386691</v>
+        <v>564.762549738669</v>
       </c>
       <c r="N45" t="n">
-        <v>113.259295658498</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O45" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865243</v>
       </c>
       <c r="P45" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q45" t="n">
-        <v>197.0638894968454</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.70962582703453</v>
+        <v>62.70962582703449</v>
       </c>
       <c r="L46" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M46" t="n">
-        <v>157.9969536036472</v>
+        <v>157.9969536036471</v>
       </c>
       <c r="N46" t="n">
         <v>157.5072679443352</v>
@@ -38190,7 +38190,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P46" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362886</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
